--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_16ha_100ha_6%_0m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_16ha_100ha_6%_0m_0_TSP/Planilha_Unificada.xlsx
@@ -6752,28 +6752,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1108.764560861528</v>
+        <v>1264.811231729649</v>
       </c>
       <c r="AB2" t="n">
-        <v>1517.060587410904</v>
+        <v>1730.570526785916</v>
       </c>
       <c r="AC2" t="n">
-        <v>1372.274454156314</v>
+        <v>1565.407304580457</v>
       </c>
       <c r="AD2" t="n">
-        <v>1108764.560861528</v>
+        <v>1264811.231729649</v>
       </c>
       <c r="AE2" t="n">
-        <v>1517060.587410904</v>
+        <v>1730570.526785916</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.900683543631137e-07</v>
+        <v>1.166594791621075e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.35763888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>1372274.454156314</v>
+        <v>1565407.304580457</v>
       </c>
     </row>
     <row r="3">
@@ -6858,28 +6858,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>780.5541635358486</v>
+        <v>905.442633136247</v>
       </c>
       <c r="AB3" t="n">
-        <v>1067.9886421691</v>
+        <v>1238.866555966789</v>
       </c>
       <c r="AC3" t="n">
-        <v>966.0613050919536</v>
+        <v>1120.63087062545</v>
       </c>
       <c r="AD3" t="n">
-        <v>780554.1635358486</v>
+        <v>905442.6331362469</v>
       </c>
       <c r="AE3" t="n">
-        <v>1067988.6421691</v>
+        <v>1238866.555966789</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.923692076733933e-07</v>
+        <v>1.508594421541919e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.70833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>966061.3050919536</v>
+        <v>1120630.87062545</v>
       </c>
     </row>
     <row r="4">
@@ -6964,28 +6964,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>695.9501065859153</v>
+        <v>810.4240919817327</v>
       </c>
       <c r="AB4" t="n">
-        <v>952.2296389826327</v>
+        <v>1108.857996036998</v>
       </c>
       <c r="AC4" t="n">
-        <v>861.3501787008217</v>
+        <v>1003.030145187198</v>
       </c>
       <c r="AD4" t="n">
-        <v>695950.1065859152</v>
+        <v>810424.0919817326</v>
       </c>
       <c r="AE4" t="n">
-        <v>952229.6389826327</v>
+        <v>1108857.996036998</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.71123457017905e-07</v>
+        <v>1.641732387545488e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.86805555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>861350.1787008217</v>
+        <v>1003030.145187198</v>
       </c>
     </row>
     <row r="5">
@@ -7070,28 +7070,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>655.4134290926586</v>
+        <v>769.8020736339045</v>
       </c>
       <c r="AB5" t="n">
-        <v>896.7655684843636</v>
+        <v>1053.277158416531</v>
       </c>
       <c r="AC5" t="n">
-        <v>811.1795212465955</v>
+        <v>952.7538647010332</v>
       </c>
       <c r="AD5" t="n">
-        <v>655413.4290926586</v>
+        <v>769802.0736339045</v>
       </c>
       <c r="AE5" t="n">
-        <v>896765.5684843636</v>
+        <v>1053277.158416531</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.013628343815877e-06</v>
+        <v>1.71358900760847e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.99131944444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>811179.5212465955</v>
+        <v>952753.8647010332</v>
       </c>
     </row>
     <row r="6">
@@ -7176,28 +7176,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>637.1909200972484</v>
+        <v>741.1651699424643</v>
       </c>
       <c r="AB6" t="n">
-        <v>871.8327277564841</v>
+        <v>1014.094883414876</v>
       </c>
       <c r="AC6" t="n">
-        <v>788.6262358443232</v>
+        <v>917.3110910328678</v>
       </c>
       <c r="AD6" t="n">
-        <v>637190.9200972484</v>
+        <v>741165.1699424643</v>
       </c>
       <c r="AE6" t="n">
-        <v>871832.7277564842</v>
+        <v>1014094.883414876</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.040517761493671e-06</v>
+        <v>1.759046902343535e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.47048611111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>788626.2358443232</v>
+        <v>917311.0910328678</v>
       </c>
     </row>
     <row r="7">
@@ -7282,28 +7282,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>625.8342761470632</v>
+        <v>729.8085259922792</v>
       </c>
       <c r="AB7" t="n">
-        <v>856.29406648407</v>
+        <v>998.5562221424622</v>
       </c>
       <c r="AC7" t="n">
-        <v>774.5705625951001</v>
+        <v>903.2554177836448</v>
       </c>
       <c r="AD7" t="n">
-        <v>625834.2761470631</v>
+        <v>729808.5259922792</v>
       </c>
       <c r="AE7" t="n">
-        <v>856294.0664840699</v>
+        <v>998556.2221424622</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.057020207933081e-06</v>
+        <v>1.786945106838059e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>20</v>
+        <v>19.16666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>774570.5625951001</v>
+        <v>903255.4177836449</v>
       </c>
     </row>
     <row r="8">
@@ -7388,28 +7388,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>605.584603425221</v>
+        <v>709.6441046164576</v>
       </c>
       <c r="AB8" t="n">
-        <v>828.5875709135346</v>
+        <v>970.9663712245761</v>
       </c>
       <c r="AC8" t="n">
-        <v>749.5083360755058</v>
+        <v>878.2987035147629</v>
       </c>
       <c r="AD8" t="n">
-        <v>605584.6034252209</v>
+        <v>709644.1046164576</v>
       </c>
       <c r="AE8" t="n">
-        <v>828587.5709135346</v>
+        <v>970966.371224576</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.071818724259228e-06</v>
+        <v>1.811962732933572e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.90625</v>
       </c>
       <c r="AH8" t="n">
-        <v>749508.3360755058</v>
+        <v>878298.7035147629</v>
       </c>
     </row>
     <row r="9">
@@ -7494,28 +7494,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>599.5553383390263</v>
+        <v>703.614839530263</v>
       </c>
       <c r="AB9" t="n">
-        <v>820.3380644302007</v>
+        <v>962.7168647412419</v>
       </c>
       <c r="AC9" t="n">
-        <v>742.046150912686</v>
+        <v>870.836518351943</v>
       </c>
       <c r="AD9" t="n">
-        <v>599555.3383390263</v>
+        <v>703614.839530263</v>
       </c>
       <c r="AE9" t="n">
-        <v>820338.0644302007</v>
+        <v>962716.8647412419</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.079778178623922e-06</v>
+        <v>1.825418585454976e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18.76736111111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>742046.150912686</v>
+        <v>870836.518351943</v>
       </c>
     </row>
     <row r="10">
@@ -7600,28 +7600,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>592.352198908027</v>
+        <v>696.4117000992637</v>
       </c>
       <c r="AB10" t="n">
-        <v>810.4824112806234</v>
+        <v>952.8612115916649</v>
       </c>
       <c r="AC10" t="n">
-        <v>733.1311074672084</v>
+        <v>861.9214749064654</v>
       </c>
       <c r="AD10" t="n">
-        <v>592352.198908027</v>
+        <v>696411.7000992637</v>
       </c>
       <c r="AE10" t="n">
-        <v>810482.4112806234</v>
+        <v>952861.2115916648</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.089558270643884e-06</v>
+        <v>1.841952316265734e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>19</v>
+        <v>18.59375</v>
       </c>
       <c r="AH10" t="n">
-        <v>733131.1074672084</v>
+        <v>861921.4749064654</v>
       </c>
     </row>
     <row r="11">
@@ -7706,28 +7706,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>587.6701553713298</v>
+        <v>691.5590643619743</v>
       </c>
       <c r="AB11" t="n">
-        <v>804.0762327565313</v>
+        <v>946.2216212927259</v>
       </c>
       <c r="AC11" t="n">
-        <v>727.3363256303278</v>
+        <v>855.9155577869337</v>
       </c>
       <c r="AD11" t="n">
-        <v>587670.1553713297</v>
+        <v>691559.0643619742</v>
       </c>
       <c r="AE11" t="n">
-        <v>804076.2327565313</v>
+        <v>946221.6212927259</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.095557038302906e-06</v>
+        <v>1.852093530629372e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>19</v>
+        <v>18.49826388888889</v>
       </c>
       <c r="AH11" t="n">
-        <v>727336.3256303278</v>
+        <v>855915.5577869337</v>
       </c>
     </row>
     <row r="12">
@@ -7812,28 +7812,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>582.3839399448568</v>
+        <v>676.0290464400638</v>
       </c>
       <c r="AB12" t="n">
-        <v>796.8433995986658</v>
+        <v>924.9727656359316</v>
       </c>
       <c r="AC12" t="n">
-        <v>720.7937839177036</v>
+        <v>836.6946630910677</v>
       </c>
       <c r="AD12" t="n">
-        <v>582383.9399448568</v>
+        <v>676029.0464400637</v>
       </c>
       <c r="AE12" t="n">
-        <v>796843.3995986658</v>
+        <v>924972.7656359316</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.102116002163548e-06</v>
+        <v>1.863181784466658e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>19</v>
+        <v>18.38541666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>720793.7839177037</v>
+        <v>836694.6630910677</v>
       </c>
     </row>
     <row r="13">
@@ -7918,28 +7918,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>580.1246882557375</v>
+        <v>673.7697947509444</v>
       </c>
       <c r="AB13" t="n">
-        <v>793.7521917664627</v>
+        <v>921.8815578037285</v>
       </c>
       <c r="AC13" t="n">
-        <v>717.9975966224687</v>
+        <v>833.8984757958326</v>
       </c>
       <c r="AD13" t="n">
-        <v>580124.6882557375</v>
+        <v>673769.7947509444</v>
       </c>
       <c r="AE13" t="n">
-        <v>793752.1917664628</v>
+        <v>921881.5578037285</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.103423126633996e-06</v>
+        <v>1.865391543238501e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>19</v>
+        <v>18.359375</v>
       </c>
       <c r="AH13" t="n">
-        <v>717997.5966224687</v>
+        <v>833898.4757958326</v>
       </c>
     </row>
     <row r="14">
@@ -8024,28 +8024,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>575.4992649281998</v>
+        <v>669.1443714234065</v>
       </c>
       <c r="AB14" t="n">
-        <v>787.42348351045</v>
+        <v>915.5528495477158</v>
       </c>
       <c r="AC14" t="n">
-        <v>712.2728914000121</v>
+        <v>828.173770573376</v>
       </c>
       <c r="AD14" t="n">
-        <v>575499.2649281997</v>
+        <v>669144.3714234065</v>
       </c>
       <c r="AE14" t="n">
-        <v>787423.48351045</v>
+        <v>915552.8495477159</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.107554573620949e-06</v>
+        <v>1.87237595935665e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>19</v>
+        <v>18.28993055555556</v>
       </c>
       <c r="AH14" t="n">
-        <v>712272.8914000121</v>
+        <v>828173.770573376</v>
       </c>
     </row>
     <row r="15">
@@ -8130,28 +8130,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>570.6575819252582</v>
+        <v>664.302688420465</v>
       </c>
       <c r="AB15" t="n">
-        <v>780.7988792258463</v>
+        <v>908.9282452631122</v>
       </c>
       <c r="AC15" t="n">
-        <v>706.2805300506406</v>
+        <v>822.1814092240045</v>
       </c>
       <c r="AD15" t="n">
-        <v>570657.5819252583</v>
+        <v>664302.688420465</v>
       </c>
       <c r="AE15" t="n">
-        <v>780798.8792258464</v>
+        <v>908928.2452631122</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.114020171447989e-06</v>
+        <v>1.883306373281661e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>19</v>
+        <v>18.18576388888889</v>
       </c>
       <c r="AH15" t="n">
-        <v>706280.5300506406</v>
+        <v>822181.4092240045</v>
       </c>
     </row>
     <row r="16">
@@ -8236,28 +8236,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>568.7728283353359</v>
+        <v>662.4179348305429</v>
       </c>
       <c r="AB16" t="n">
-        <v>778.220076214655</v>
+        <v>906.3494422519208</v>
       </c>
       <c r="AC16" t="n">
-        <v>703.9478443794644</v>
+        <v>819.8487235528282</v>
       </c>
       <c r="AD16" t="n">
-        <v>568772.8283353359</v>
+        <v>662417.9348305429</v>
       </c>
       <c r="AE16" t="n">
-        <v>778220.0762146551</v>
+        <v>906349.4422519208</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.113926805414385e-06</v>
+        <v>1.883148533369387e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>19</v>
+        <v>18.18576388888889</v>
       </c>
       <c r="AH16" t="n">
-        <v>703947.8443794644</v>
+        <v>819848.7235528282</v>
       </c>
     </row>
     <row r="17">
@@ -8342,28 +8342,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>566.2466625105498</v>
+        <v>659.8917690057566</v>
       </c>
       <c r="AB17" t="n">
-        <v>774.7636646866116</v>
+        <v>902.8930307238775</v>
       </c>
       <c r="AC17" t="n">
-        <v>700.8213079165535</v>
+        <v>816.7221870899175</v>
       </c>
       <c r="AD17" t="n">
-        <v>566246.6625105498</v>
+        <v>659891.7690057566</v>
       </c>
       <c r="AE17" t="n">
-        <v>774763.6646866116</v>
+        <v>902893.0307238775</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.116657761897286e-06</v>
+        <v>1.887765350803417e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>19</v>
+        <v>18.14236111111111</v>
       </c>
       <c r="AH17" t="n">
-        <v>700821.3079165535</v>
+        <v>816722.1870899175</v>
       </c>
     </row>
     <row r="18">
@@ -8448,28 +8448,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>562.6935645797849</v>
+        <v>656.3386710749918</v>
       </c>
       <c r="AB18" t="n">
-        <v>769.9021593461216</v>
+        <v>898.0315253833874</v>
       </c>
       <c r="AC18" t="n">
-        <v>696.4237778225942</v>
+        <v>812.3246569959581</v>
       </c>
       <c r="AD18" t="n">
-        <v>562693.564579785</v>
+        <v>656338.6710749918</v>
       </c>
       <c r="AE18" t="n">
-        <v>769902.1593461216</v>
+        <v>898031.5253833873</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.120252354191019e-06</v>
+        <v>1.893842187425986e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>19</v>
+        <v>18.09027777777778</v>
       </c>
       <c r="AH18" t="n">
-        <v>696423.7778225942</v>
+        <v>812324.6569959581</v>
       </c>
     </row>
     <row r="19">
@@ -8554,28 +8554,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>557.9730664047722</v>
+        <v>651.6181728999792</v>
       </c>
       <c r="AB19" t="n">
-        <v>763.4433654893875</v>
+        <v>891.5727315266532</v>
       </c>
       <c r="AC19" t="n">
-        <v>690.5814021865727</v>
+        <v>806.4822813599366</v>
       </c>
       <c r="AD19" t="n">
-        <v>557973.0664047722</v>
+        <v>651618.1728999792</v>
       </c>
       <c r="AE19" t="n">
-        <v>763443.3654893874</v>
+        <v>891572.7315266533</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.123216725757929e-06</v>
+        <v>1.898853604640703e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>19</v>
+        <v>18.03819444444444</v>
       </c>
       <c r="AH19" t="n">
-        <v>690581.4021865728</v>
+        <v>806482.2813599366</v>
       </c>
     </row>
     <row r="20">
@@ -8660,28 +8660,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>557.8251736278298</v>
+        <v>651.4702801230368</v>
       </c>
       <c r="AB20" t="n">
-        <v>763.2410120674062</v>
+        <v>891.3703781046721</v>
       </c>
       <c r="AC20" t="n">
-        <v>690.3983610911806</v>
+        <v>806.2992402645446</v>
       </c>
       <c r="AD20" t="n">
-        <v>557825.1736278299</v>
+        <v>651470.2801230368</v>
       </c>
       <c r="AE20" t="n">
-        <v>763241.0120674062</v>
+        <v>891370.3781046721</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.123753580451148e-06</v>
+        <v>1.899761184136281e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>19</v>
+        <v>18.02951388888889</v>
       </c>
       <c r="AH20" t="n">
-        <v>690398.3610911806</v>
+        <v>806299.2402645445</v>
       </c>
     </row>
     <row r="21">
@@ -8766,28 +8766,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>542.2664545010736</v>
+        <v>646.2406148377385</v>
       </c>
       <c r="AB21" t="n">
-        <v>741.952886155934</v>
+        <v>884.2149193447777</v>
       </c>
       <c r="AC21" t="n">
-        <v>671.1419440386269</v>
+        <v>799.826688445945</v>
       </c>
       <c r="AD21" t="n">
-        <v>542266.4545010736</v>
+        <v>646240.6148377385</v>
       </c>
       <c r="AE21" t="n">
-        <v>741952.8861559341</v>
+        <v>884214.9193447777</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.126554561459252e-06</v>
+        <v>1.904496381504517e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>18</v>
+        <v>17.98611111111111</v>
       </c>
       <c r="AH21" t="n">
-        <v>671141.9440386269</v>
+        <v>799826.688445945</v>
       </c>
     </row>
     <row r="22">
@@ -8872,28 +8872,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>542.0500735340844</v>
+        <v>646.0242338707493</v>
       </c>
       <c r="AB22" t="n">
-        <v>741.6568241708449</v>
+        <v>883.9188573596886</v>
       </c>
       <c r="AC22" t="n">
-        <v>670.8741377938691</v>
+        <v>799.5588822011871</v>
       </c>
       <c r="AD22" t="n">
-        <v>542050.0735340844</v>
+        <v>646024.2338707492</v>
       </c>
       <c r="AE22" t="n">
-        <v>741656.8241708449</v>
+        <v>883918.8573596886</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.126344487883644e-06</v>
+        <v>1.9041412417019e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>18</v>
+        <v>17.98611111111111</v>
       </c>
       <c r="AH22" t="n">
-        <v>670874.137793869</v>
+        <v>799558.8822011871</v>
       </c>
     </row>
     <row r="23">
@@ -8978,28 +8978,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>539.7863487854744</v>
+        <v>643.7605091221394</v>
       </c>
       <c r="AB23" t="n">
-        <v>738.5594961013093</v>
+        <v>880.821529290153</v>
       </c>
       <c r="AC23" t="n">
-        <v>668.0724143681628</v>
+        <v>796.7571587754807</v>
       </c>
       <c r="AD23" t="n">
-        <v>539786.3487854744</v>
+        <v>643760.5091221394</v>
       </c>
       <c r="AE23" t="n">
-        <v>738559.4961013093</v>
+        <v>880821.5292901529</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.12597102374923e-06</v>
+        <v>1.903509882052802e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>18</v>
+        <v>17.99479166666667</v>
       </c>
       <c r="AH23" t="n">
-        <v>668072.4143681627</v>
+        <v>796757.1587754807</v>
       </c>
     </row>
     <row r="24">
@@ -9084,28 +9084,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>536.6691184129115</v>
+        <v>640.6432787495766</v>
       </c>
       <c r="AB24" t="n">
-        <v>734.2943639830705</v>
+        <v>876.5563971719141</v>
       </c>
       <c r="AC24" t="n">
-        <v>664.214340473138</v>
+        <v>792.8990848804561</v>
       </c>
       <c r="AD24" t="n">
-        <v>536669.1184129115</v>
+        <v>640643.2787495765</v>
       </c>
       <c r="AE24" t="n">
-        <v>734294.3639830705</v>
+        <v>876556.3971719141</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.129799031126972e-06</v>
+        <v>1.909981318456057e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>18</v>
+        <v>17.93402777777778</v>
       </c>
       <c r="AH24" t="n">
-        <v>664214.340473138</v>
+        <v>792899.0848804561</v>
       </c>
     </row>
     <row r="25">
@@ -9190,28 +9190,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>533.9513983407588</v>
+        <v>637.9255586774237</v>
       </c>
       <c r="AB25" t="n">
-        <v>730.5758594830036</v>
+        <v>872.8378926718473</v>
       </c>
       <c r="AC25" t="n">
-        <v>660.8507248236036</v>
+        <v>789.5354692309219</v>
       </c>
       <c r="AD25" t="n">
-        <v>533951.3983407589</v>
+        <v>637925.5586774237</v>
       </c>
       <c r="AE25" t="n">
-        <v>730575.8594830036</v>
+        <v>872837.8926718473</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.130195836769786e-06</v>
+        <v>1.910652138083224e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>18</v>
+        <v>17.92534722222222</v>
       </c>
       <c r="AH25" t="n">
-        <v>660850.7248236036</v>
+        <v>789535.4692309218</v>
       </c>
     </row>
     <row r="26">
@@ -9296,28 +9296,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>530.3293349841802</v>
+        <v>634.3034953208452</v>
       </c>
       <c r="AB26" t="n">
-        <v>725.6199926043751</v>
+        <v>867.8820257932186</v>
       </c>
       <c r="AC26" t="n">
-        <v>656.3678389242685</v>
+        <v>785.0525833315867</v>
       </c>
       <c r="AD26" t="n">
-        <v>530329.3349841802</v>
+        <v>634303.4953208452</v>
       </c>
       <c r="AE26" t="n">
-        <v>725619.992604375</v>
+        <v>867882.0257932186</v>
       </c>
       <c r="AF26" t="n">
-        <v>1.129495591517761e-06</v>
+        <v>1.909468338741165e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>18</v>
+        <v>17.94270833333333</v>
       </c>
       <c r="AH26" t="n">
-        <v>656367.8389242685</v>
+        <v>785052.5833315867</v>
       </c>
     </row>
     <row r="27">
@@ -9402,28 +9402,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>529.14564632241</v>
+        <v>633.1198066590749</v>
       </c>
       <c r="AB27" t="n">
-        <v>724.0004175566828</v>
+        <v>866.2624507455265</v>
       </c>
       <c r="AC27" t="n">
-        <v>654.9028338460402</v>
+        <v>783.5875782533584</v>
       </c>
       <c r="AD27" t="n">
-        <v>529145.64632241</v>
+        <v>633119.806659075</v>
       </c>
       <c r="AE27" t="n">
-        <v>724000.4175566828</v>
+        <v>866262.4507455265</v>
       </c>
       <c r="AF27" t="n">
-        <v>1.132693378168679e-06</v>
+        <v>1.914874355736567e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>18</v>
+        <v>17.890625</v>
       </c>
       <c r="AH27" t="n">
-        <v>654902.8338460402</v>
+        <v>783587.5782533584</v>
       </c>
     </row>
     <row r="28">
@@ -9508,28 +9508,28 @@
         <v>10</v>
       </c>
       <c r="AA28" t="n">
-        <v>530.6329516933796</v>
+        <v>634.6071120300444</v>
       </c>
       <c r="AB28" t="n">
-        <v>726.0354143805255</v>
+        <v>868.2974475693691</v>
       </c>
       <c r="AC28" t="n">
-        <v>656.7436134291513</v>
+        <v>785.4283578364696</v>
       </c>
       <c r="AD28" t="n">
-        <v>530632.9516933796</v>
+        <v>634607.1120300444</v>
       </c>
       <c r="AE28" t="n">
-        <v>726035.4143805255</v>
+        <v>868297.4475693691</v>
       </c>
       <c r="AF28" t="n">
-        <v>1.132483304593071e-06</v>
+        <v>1.91451921593395e-06</v>
       </c>
       <c r="AG28" t="n">
-        <v>18</v>
+        <v>17.890625</v>
       </c>
       <c r="AH28" t="n">
-        <v>656743.6134291514</v>
+        <v>785428.3578364695</v>
       </c>
     </row>
   </sheetData>
@@ -9805,28 +9805,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>886.7576355514847</v>
+        <v>1017.849766175646</v>
       </c>
       <c r="AB2" t="n">
-        <v>1213.300917947402</v>
+        <v>1392.666954444012</v>
       </c>
       <c r="AC2" t="n">
-        <v>1097.505181217035</v>
+        <v>1259.752774932221</v>
       </c>
       <c r="AD2" t="n">
-        <v>886757.6355514847</v>
+        <v>1017849.766175646</v>
       </c>
       <c r="AE2" t="n">
-        <v>1213300.917947402</v>
+        <v>1392666.954444012</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.968091613690818e-07</v>
+        <v>1.379906940339122e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.30208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1097505.181217035</v>
+        <v>1259752.774932222</v>
       </c>
     </row>
     <row r="3">
@@ -9911,28 +9911,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>668.0835999028055</v>
+        <v>778.9092539846748</v>
       </c>
       <c r="AB3" t="n">
-        <v>914.1014551552927</v>
+        <v>1065.738004352896</v>
       </c>
       <c r="AC3" t="n">
-        <v>826.8608952247209</v>
+        <v>964.0254649901384</v>
       </c>
       <c r="AD3" t="n">
-        <v>668083.5999028055</v>
+        <v>778909.2539846748</v>
       </c>
       <c r="AE3" t="n">
-        <v>914101.4551552926</v>
+        <v>1065738.004352896</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.805878979120099e-07</v>
+        <v>1.698173303650769e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.37152777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>826860.8952247209</v>
+        <v>964025.4649901384</v>
       </c>
     </row>
     <row r="4">
@@ -10017,28 +10017,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>602.0561292580885</v>
+        <v>712.8816938314068</v>
       </c>
       <c r="AB4" t="n">
-        <v>823.7597568927703</v>
+        <v>975.3961836208254</v>
       </c>
       <c r="AC4" t="n">
-        <v>745.1412818490037</v>
+        <v>882.3057408331947</v>
       </c>
       <c r="AD4" t="n">
-        <v>602056.1292580885</v>
+        <v>712881.6938314068</v>
       </c>
       <c r="AE4" t="n">
-        <v>823759.7568927703</v>
+        <v>975396.1836208254</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.050491910826446e-06</v>
+        <v>1.819232444602973e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.95659722222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>745141.2818490037</v>
+        <v>882305.7408331947</v>
       </c>
     </row>
     <row r="5">
@@ -10123,28 +10123,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>580.4341487478837</v>
+        <v>681.1692349858929</v>
       </c>
       <c r="AB5" t="n">
-        <v>794.1756092642503</v>
+        <v>932.0057983734491</v>
       </c>
       <c r="AC5" t="n">
-        <v>718.3806037485379</v>
+        <v>843.0564730550399</v>
       </c>
       <c r="AD5" t="n">
-        <v>580434.1487478837</v>
+        <v>681169.2349858929</v>
       </c>
       <c r="AE5" t="n">
-        <v>794175.6092642503</v>
+        <v>932005.7983734491</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.086880631884151e-06</v>
+        <v>1.882250104504517e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.28819444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>718380.6037485378</v>
+        <v>843056.4730550399</v>
       </c>
     </row>
     <row r="6">
@@ -10229,28 +10229,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>554.7400089901581</v>
+        <v>655.5603465741877</v>
       </c>
       <c r="AB6" t="n">
-        <v>759.0197537022857</v>
+        <v>896.9665874641337</v>
       </c>
       <c r="AC6" t="n">
-        <v>686.5799736998538</v>
+        <v>811.3613552570682</v>
       </c>
       <c r="AD6" t="n">
-        <v>554740.0089901581</v>
+        <v>655560.3465741877</v>
       </c>
       <c r="AE6" t="n">
-        <v>759019.7537022857</v>
+        <v>896966.5874641336</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.112258565415437e-06</v>
+        <v>1.926199381582502e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.84548611111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>686579.9736998538</v>
+        <v>811361.3552570682</v>
       </c>
     </row>
     <row r="7">
@@ -10335,28 +10335,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>544.9001968037473</v>
+        <v>645.7205343877771</v>
       </c>
       <c r="AB7" t="n">
-        <v>745.5564885669623</v>
+        <v>883.5033223288102</v>
       </c>
       <c r="AC7" t="n">
-        <v>674.4016236932345</v>
+        <v>799.1830052504488</v>
       </c>
       <c r="AD7" t="n">
-        <v>544900.1968037473</v>
+        <v>645720.5343877771</v>
       </c>
       <c r="AE7" t="n">
-        <v>745556.4885669623</v>
+        <v>883503.3223288102</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.128122792180475e-06</v>
+        <v>1.953672906834867e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.57638888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>674401.6236932344</v>
+        <v>799183.0052504488</v>
       </c>
     </row>
     <row r="8">
@@ -10441,28 +10441,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>537.2690188490913</v>
+        <v>627.9988780978119</v>
       </c>
       <c r="AB8" t="n">
-        <v>735.1151742255911</v>
+        <v>859.2557703685828</v>
       </c>
       <c r="AC8" t="n">
-        <v>664.9568137381269</v>
+        <v>777.2496056176524</v>
       </c>
       <c r="AD8" t="n">
-        <v>537269.0188490913</v>
+        <v>627998.8780978119</v>
       </c>
       <c r="AE8" t="n">
-        <v>735115.1742255911</v>
+        <v>859255.7703685828</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.139350897881758e-06</v>
+        <v>1.973117639319417e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.39409722222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>664956.8137381269</v>
+        <v>777249.6056176524</v>
       </c>
     </row>
     <row r="9">
@@ -10547,28 +10547,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>531.2287638714192</v>
+        <v>621.9586231201398</v>
       </c>
       <c r="AB9" t="n">
-        <v>726.8506308878974</v>
+        <v>850.9912270308894</v>
       </c>
       <c r="AC9" t="n">
-        <v>657.4810268172234</v>
+        <v>769.7738186967489</v>
       </c>
       <c r="AD9" t="n">
-        <v>531228.7638714192</v>
+        <v>621958.6231201398</v>
       </c>
       <c r="AE9" t="n">
-        <v>726850.6308878975</v>
+        <v>850991.2270308894</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.147488256207204e-06</v>
+        <v>1.987209843292092e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18.26388888888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>657481.0268172234</v>
+        <v>769773.8186967489</v>
       </c>
     </row>
     <row r="10">
@@ -10653,28 +10653,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>525.9472905679074</v>
+        <v>616.6771498166281</v>
       </c>
       <c r="AB10" t="n">
-        <v>719.624286111875</v>
+        <v>843.7648822548666</v>
       </c>
       <c r="AC10" t="n">
-        <v>650.9443542443859</v>
+        <v>763.2371461239115</v>
       </c>
       <c r="AD10" t="n">
-        <v>525947.2905679074</v>
+        <v>616677.1498166281</v>
       </c>
       <c r="AE10" t="n">
-        <v>719624.286111875</v>
+        <v>843764.8822548667</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.154249266091847e-06</v>
+        <v>1.998918499411821e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>19</v>
+        <v>18.15972222222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>650944.3542443858</v>
+        <v>763237.1461239115</v>
       </c>
     </row>
     <row r="11">
@@ -10759,28 +10759,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>521.5349675629357</v>
+        <v>612.2648268116563</v>
       </c>
       <c r="AB11" t="n">
-        <v>713.58715111852</v>
+        <v>837.7277472615116</v>
       </c>
       <c r="AC11" t="n">
-        <v>645.4833949416244</v>
+        <v>757.77618682115</v>
       </c>
       <c r="AD11" t="n">
-        <v>521534.9675629356</v>
+        <v>612264.8268116564</v>
       </c>
       <c r="AE11" t="n">
-        <v>713587.1511185199</v>
+        <v>837727.7472615116</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.159271730577582e-06</v>
+        <v>2.007616358243621e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>19</v>
+        <v>18.08159722222222</v>
       </c>
       <c r="AH11" t="n">
-        <v>645483.3949416244</v>
+        <v>757776.18682115</v>
       </c>
     </row>
     <row r="12">
@@ -10865,28 +10865,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>517.2606666991564</v>
+        <v>607.990525947877</v>
       </c>
       <c r="AB12" t="n">
-        <v>707.7388641078516</v>
+        <v>831.8794602508433</v>
       </c>
       <c r="AC12" t="n">
-        <v>640.1932602351318</v>
+        <v>752.4860521146575</v>
       </c>
       <c r="AD12" t="n">
-        <v>517260.6666991564</v>
+        <v>607990.525947877</v>
       </c>
       <c r="AE12" t="n">
-        <v>707738.8641078515</v>
+        <v>831879.4602508433</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.162000280995313e-06</v>
+        <v>2.012341637320511e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>19</v>
+        <v>18.03819444444444</v>
       </c>
       <c r="AH12" t="n">
-        <v>640193.2602351318</v>
+        <v>752486.0521146575</v>
       </c>
     </row>
     <row r="13">
@@ -10971,28 +10971,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>502.141763425661</v>
+        <v>602.8767601551191</v>
       </c>
       <c r="AB13" t="n">
-        <v>687.0525136501172</v>
+        <v>824.8825802897674</v>
       </c>
       <c r="AC13" t="n">
-        <v>621.4811860316083</v>
+        <v>746.156944556884</v>
       </c>
       <c r="AD13" t="n">
-        <v>502141.763425661</v>
+        <v>602876.7601551191</v>
       </c>
       <c r="AE13" t="n">
-        <v>687052.5136501172</v>
+        <v>824882.5802897674</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.16774713939726e-06</v>
+        <v>2.022293995022282e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>17.95138888888889</v>
       </c>
       <c r="AH13" t="n">
-        <v>621481.1860316084</v>
+        <v>746156.944556884</v>
       </c>
     </row>
     <row r="14">
@@ -11077,28 +11077,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>497.4920344096127</v>
+        <v>598.2270311390707</v>
       </c>
       <c r="AB14" t="n">
-        <v>680.6905492787931</v>
+        <v>818.5206159184435</v>
       </c>
       <c r="AC14" t="n">
-        <v>615.7263986108105</v>
+        <v>740.4021571360861</v>
       </c>
       <c r="AD14" t="n">
-        <v>497492.0344096127</v>
+        <v>598227.0311390708</v>
       </c>
       <c r="AE14" t="n">
-        <v>680690.5492787932</v>
+        <v>818520.6159184434</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.171296669586697e-06</v>
+        <v>2.028441039485139e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>18</v>
+        <v>17.89930555555556</v>
       </c>
       <c r="AH14" t="n">
-        <v>615726.3986108105</v>
+        <v>740402.1571360861</v>
       </c>
     </row>
     <row r="15">
@@ -11183,28 +11183,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>493.798638551065</v>
+        <v>594.5336352805231</v>
       </c>
       <c r="AB15" t="n">
-        <v>675.6370821240027</v>
+        <v>813.4671487636531</v>
       </c>
       <c r="AC15" t="n">
-        <v>611.1552272686876</v>
+        <v>735.8309857939632</v>
       </c>
       <c r="AD15" t="n">
-        <v>493798.638551065</v>
+        <v>594533.6352805231</v>
       </c>
       <c r="AE15" t="n">
-        <v>675637.0821240027</v>
+        <v>813467.1487636531</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.173832048293439e-06</v>
+        <v>2.032831785530038e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>18</v>
+        <v>17.85590277777778</v>
       </c>
       <c r="AH15" t="n">
-        <v>611155.2272686876</v>
+        <v>735830.9857939632</v>
       </c>
     </row>
     <row r="16">
@@ -11289,28 +11289,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>490.5207853923805</v>
+        <v>591.2557821218387</v>
       </c>
       <c r="AB16" t="n">
-        <v>671.1521788236151</v>
+        <v>808.9822454632656</v>
       </c>
       <c r="AC16" t="n">
-        <v>607.0983568446877</v>
+        <v>731.7741153699633</v>
       </c>
       <c r="AD16" t="n">
-        <v>490520.7853923805</v>
+        <v>591255.7821218387</v>
       </c>
       <c r="AE16" t="n">
-        <v>671152.1788236152</v>
+        <v>808982.2454632656</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.173952780612807e-06</v>
+        <v>2.033040868675033e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>18</v>
+        <v>17.85590277777778</v>
       </c>
       <c r="AH16" t="n">
-        <v>607098.3568446877</v>
+        <v>731774.1153699632</v>
       </c>
     </row>
     <row r="17">
@@ -11395,28 +11395,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>488.2450516450409</v>
+        <v>579.060162239782</v>
       </c>
       <c r="AB17" t="n">
-        <v>668.0384195122181</v>
+        <v>792.2956603078591</v>
       </c>
       <c r="AC17" t="n">
-        <v>604.2817703517816</v>
+        <v>716.6800744820196</v>
       </c>
       <c r="AD17" t="n">
-        <v>488245.0516450409</v>
+        <v>579060.162239782</v>
       </c>
       <c r="AE17" t="n">
-        <v>668038.4195122181</v>
+        <v>792295.6603078591</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.176946942133149e-06</v>
+        <v>2.038226130670914e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>18</v>
+        <v>17.8125</v>
       </c>
       <c r="AH17" t="n">
-        <v>604281.7703517816</v>
+        <v>716680.0744820195</v>
       </c>
     </row>
     <row r="18">
@@ -11501,28 +11501,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>483.0262796097565</v>
+        <v>573.8413902044978</v>
       </c>
       <c r="AB18" t="n">
-        <v>660.8978653775689</v>
+        <v>785.1551061732101</v>
       </c>
       <c r="AC18" t="n">
-        <v>597.8227006819128</v>
+        <v>710.2210048121507</v>
       </c>
       <c r="AD18" t="n">
-        <v>483026.2796097565</v>
+        <v>573841.3902044977</v>
       </c>
       <c r="AE18" t="n">
-        <v>660897.8653775689</v>
+        <v>785155.1061732101</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.179627199623133e-06</v>
+        <v>2.042867776489806e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>18</v>
+        <v>17.76909722222222</v>
       </c>
       <c r="AH18" t="n">
-        <v>597822.7006819128</v>
+        <v>710221.0048121507</v>
       </c>
     </row>
     <row r="19">
@@ -11607,28 +11607,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>481.6247470102941</v>
+        <v>572.4398576050354</v>
       </c>
       <c r="AB19" t="n">
-        <v>658.98022664373</v>
+        <v>783.2374674393711</v>
       </c>
       <c r="AC19" t="n">
-        <v>596.0880786974087</v>
+        <v>708.4863828276466</v>
       </c>
       <c r="AD19" t="n">
-        <v>481624.7470102941</v>
+        <v>572439.8576050354</v>
       </c>
       <c r="AE19" t="n">
-        <v>658980.2266437301</v>
+        <v>783237.4674393712</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.179530613767638e-06</v>
+        <v>2.04270050997381e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>18</v>
+        <v>17.76909722222222</v>
       </c>
       <c r="AH19" t="n">
-        <v>596088.0786974087</v>
+        <v>708486.3828276466</v>
       </c>
     </row>
     <row r="20">
@@ -11713,28 +11713,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>482.445783420752</v>
+        <v>573.2608940154931</v>
       </c>
       <c r="AB20" t="n">
-        <v>660.1036048820885</v>
+        <v>784.3608456777297</v>
       </c>
       <c r="AC20" t="n">
-        <v>597.1042432933693</v>
+        <v>709.5025474236073</v>
       </c>
       <c r="AD20" t="n">
-        <v>482445.783420752</v>
+        <v>573260.8940154931</v>
       </c>
       <c r="AE20" t="n">
-        <v>660103.6048820885</v>
+        <v>784360.8456777297</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.178951098634669e-06</v>
+        <v>2.041696910877833e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>18</v>
+        <v>17.77777777777778</v>
       </c>
       <c r="AH20" t="n">
-        <v>597104.2432933693</v>
+        <v>709502.5474236073</v>
       </c>
     </row>
   </sheetData>
@@ -12010,28 +12010,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>483.3501806550427</v>
+        <v>583.5338615403401</v>
       </c>
       <c r="AB2" t="n">
-        <v>661.341041077235</v>
+        <v>798.4167730565663</v>
       </c>
       <c r="AC2" t="n">
-        <v>598.2235803148037</v>
+        <v>722.2169968210259</v>
       </c>
       <c r="AD2" t="n">
-        <v>483350.1806550426</v>
+        <v>583533.8615403401</v>
       </c>
       <c r="AE2" t="n">
-        <v>661341.041077235</v>
+        <v>798416.7730565662</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.130567558037048e-06</v>
+        <v>2.139277106321836e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.68576388888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>598223.5803148038</v>
+        <v>722216.9968210259</v>
       </c>
     </row>
     <row r="3">
@@ -12116,28 +12116,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>414.9735520591861</v>
+        <v>506.0418673317682</v>
       </c>
       <c r="AB3" t="n">
-        <v>567.7851212684291</v>
+        <v>692.388807874894</v>
       </c>
       <c r="AC3" t="n">
-        <v>513.596506185992</v>
+        <v>626.3081918251086</v>
       </c>
       <c r="AD3" t="n">
-        <v>414973.5520591862</v>
+        <v>506041.8673317682</v>
       </c>
       <c r="AE3" t="n">
-        <v>567785.1212684291</v>
+        <v>692388.807874894</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.252165541579021e-06</v>
+        <v>2.369366657819226e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.68055555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>513596.506185992</v>
+        <v>626308.1918251086</v>
       </c>
     </row>
     <row r="4">
@@ -12222,28 +12222,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>396.0695771022671</v>
+        <v>478.0226162706848</v>
       </c>
       <c r="AB4" t="n">
-        <v>541.919868747857</v>
+        <v>654.0516324510039</v>
       </c>
       <c r="AC4" t="n">
-        <v>490.1997970638735</v>
+        <v>591.6298626171108</v>
       </c>
       <c r="AD4" t="n">
-        <v>396069.5771022671</v>
+        <v>478022.6162706848</v>
       </c>
       <c r="AE4" t="n">
-        <v>541919.8687478569</v>
+        <v>654051.6324510039</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.29511417569511e-06</v>
+        <v>2.450634715671395e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.05555555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>490199.7970638735</v>
+        <v>591629.8626171108</v>
       </c>
     </row>
     <row r="5">
@@ -12328,28 +12328,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>374.7810505002855</v>
+        <v>456.8193410147238</v>
       </c>
       <c r="AB5" t="n">
-        <v>512.7919674675163</v>
+        <v>625.0403758233126</v>
       </c>
       <c r="AC5" t="n">
-        <v>463.8518218004623</v>
+        <v>565.3873996044122</v>
       </c>
       <c r="AD5" t="n">
-        <v>374781.0505002855</v>
+        <v>456819.3410147238</v>
       </c>
       <c r="AE5" t="n">
-        <v>512791.9674675164</v>
+        <v>625040.3758233127</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.317935689557297e-06</v>
+        <v>2.49381793085382e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.74305555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>463851.8218004623</v>
+        <v>565387.3996044121</v>
       </c>
     </row>
     <row r="6">
@@ -12434,28 +12434,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>365.4758366966734</v>
+        <v>447.5141272111117</v>
       </c>
       <c r="AB6" t="n">
-        <v>500.0601634243542</v>
+        <v>612.3085717801505</v>
       </c>
       <c r="AC6" t="n">
-        <v>452.3351232659803</v>
+        <v>553.8707010699301</v>
       </c>
       <c r="AD6" t="n">
-        <v>365475.8366966734</v>
+        <v>447514.1272111117</v>
       </c>
       <c r="AE6" t="n">
-        <v>500060.1634243542</v>
+        <v>612308.5717801505</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.329386862392515e-06</v>
+        <v>2.515486014032724e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.59548611111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>452335.1232659803</v>
+        <v>553870.7010699301</v>
       </c>
     </row>
     <row r="7">
@@ -12540,28 +12540,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>365.8322338880454</v>
+        <v>447.8705244024837</v>
       </c>
       <c r="AB7" t="n">
-        <v>500.5478017847236</v>
+        <v>612.7962101405199</v>
       </c>
       <c r="AC7" t="n">
-        <v>452.7762221056408</v>
+        <v>554.3117999095907</v>
       </c>
       <c r="AD7" t="n">
-        <v>365832.2338880454</v>
+        <v>447870.5244024837</v>
       </c>
       <c r="AE7" t="n">
-        <v>500547.8017847236</v>
+        <v>612796.2101405199</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.330249068347166e-06</v>
+        <v>2.517117493236782e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.578125</v>
       </c>
       <c r="AH7" t="n">
-        <v>452776.2221056409</v>
+        <v>554311.7999095907</v>
       </c>
     </row>
   </sheetData>
@@ -12837,28 +12837,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>609.0747412821634</v>
+        <v>713.4524285048398</v>
       </c>
       <c r="AB2" t="n">
-        <v>833.3629315034184</v>
+        <v>976.1770879800529</v>
       </c>
       <c r="AC2" t="n">
-        <v>753.8279429529518</v>
+        <v>883.0121167763839</v>
       </c>
       <c r="AD2" t="n">
-        <v>609074.7412821633</v>
+        <v>713452.4285048398</v>
       </c>
       <c r="AE2" t="n">
-        <v>833362.9315034184</v>
+        <v>976177.0879800529</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.992998107469677e-07</v>
+        <v>1.820507232464348e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.38715277777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>753827.9429529519</v>
+        <v>883012.1167763839</v>
       </c>
     </row>
     <row r="3">
@@ -12943,28 +12943,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>501.5667727395678</v>
+        <v>596.5330805292923</v>
       </c>
       <c r="AB3" t="n">
-        <v>686.2657860266056</v>
+        <v>816.2028779623181</v>
       </c>
       <c r="AC3" t="n">
-        <v>620.7695425883056</v>
+        <v>738.3056208375278</v>
       </c>
       <c r="AD3" t="n">
-        <v>501566.7727395678</v>
+        <v>596533.0805292923</v>
       </c>
       <c r="AE3" t="n">
-        <v>686265.7860266056</v>
+        <v>816202.8779623181</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.144446767884715e-06</v>
+        <v>2.084933466110829e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.54861111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>620769.5425883057</v>
+        <v>738305.6208375278</v>
       </c>
     </row>
     <row r="4">
@@ -13049,28 +13049,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>465.8993743208732</v>
+        <v>560.7803412560262</v>
       </c>
       <c r="AB4" t="n">
-        <v>637.4640779755839</v>
+        <v>767.2844027890986</v>
       </c>
       <c r="AC4" t="n">
-        <v>576.6254010600462</v>
+        <v>694.0558562773293</v>
       </c>
       <c r="AD4" t="n">
-        <v>465899.3743208732</v>
+        <v>560780.3412560262</v>
       </c>
       <c r="AE4" t="n">
-        <v>637464.077975584</v>
+        <v>767284.4027890987</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.199556729589652e-06</v>
+        <v>2.185331847843412e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.65451388888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>576625.4010600462</v>
+        <v>694055.8562773294</v>
       </c>
     </row>
     <row r="5">
@@ -13155,28 +13155,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>452.0943923841073</v>
+        <v>537.478818048839</v>
       </c>
       <c r="AB5" t="n">
-        <v>618.5754926568812</v>
+        <v>735.4022307463733</v>
       </c>
       <c r="AC5" t="n">
-        <v>559.5395158138645</v>
+        <v>665.216473987452</v>
       </c>
       <c r="AD5" t="n">
-        <v>452094.3923841073</v>
+        <v>537478.818048839</v>
       </c>
       <c r="AE5" t="n">
-        <v>618575.4926568812</v>
+        <v>735402.2307463733</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.226750840720947e-06</v>
+        <v>2.234873612449528e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.23784722222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>559539.5158138644</v>
+        <v>665216.473987452</v>
       </c>
     </row>
     <row r="6">
@@ -13261,28 +13261,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>431.9316293240291</v>
+        <v>526.7272554046104</v>
       </c>
       <c r="AB6" t="n">
-        <v>590.9879107197551</v>
+        <v>720.6914684110722</v>
       </c>
       <c r="AC6" t="n">
-        <v>534.5848539774031</v>
+        <v>651.9096861627474</v>
       </c>
       <c r="AD6" t="n">
-        <v>431931.6293240291</v>
+        <v>526727.2554046104</v>
       </c>
       <c r="AE6" t="n">
-        <v>590987.9107197551</v>
+        <v>720691.4684110722</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.244459233467108e-06</v>
+        <v>2.267134458216733e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.97743055555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>534584.8539774031</v>
+        <v>651909.6861627474</v>
       </c>
     </row>
     <row r="7">
@@ -13367,28 +13367,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>424.9239474096979</v>
+        <v>519.7195734902792</v>
       </c>
       <c r="AB7" t="n">
-        <v>581.3996911674603</v>
+        <v>711.1032488587774</v>
       </c>
       <c r="AC7" t="n">
-        <v>525.9117206420287</v>
+        <v>643.2365528273732</v>
       </c>
       <c r="AD7" t="n">
-        <v>424923.9474096979</v>
+        <v>519719.5734902793</v>
       </c>
       <c r="AE7" t="n">
-        <v>581399.6911674603</v>
+        <v>711103.2488587775</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.253738740583001e-06</v>
+        <v>2.284039704906971e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.84722222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>525911.7206420287</v>
+        <v>643236.5528273731</v>
       </c>
     </row>
     <row r="8">
@@ -13473,28 +13473,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>418.099939479725</v>
+        <v>503.5696164904771</v>
       </c>
       <c r="AB8" t="n">
-        <v>572.0627824636888</v>
+        <v>689.00616520583</v>
       </c>
       <c r="AC8" t="n">
-        <v>517.4659134005113</v>
+        <v>623.2483838248112</v>
       </c>
       <c r="AD8" t="n">
-        <v>418099.939479725</v>
+        <v>503569.6164904771</v>
       </c>
       <c r="AE8" t="n">
-        <v>572062.7824636888</v>
+        <v>689006.16520583</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.261394333953612e-06</v>
+        <v>2.297986533426418e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.734375</v>
       </c>
       <c r="AH8" t="n">
-        <v>517465.9134005114</v>
+        <v>623248.3838248112</v>
       </c>
     </row>
     <row r="9">
@@ -13579,28 +13579,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>410.8261463025081</v>
+        <v>496.2958233132602</v>
       </c>
       <c r="AB9" t="n">
-        <v>562.1104577415136</v>
+        <v>679.0538404836548</v>
       </c>
       <c r="AC9" t="n">
-        <v>508.4634245816452</v>
+        <v>614.2458950059449</v>
       </c>
       <c r="AD9" t="n">
-        <v>410826.1463025081</v>
+        <v>496295.8233132602</v>
       </c>
       <c r="AE9" t="n">
-        <v>562110.4577415136</v>
+        <v>679053.8404836548</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.267090920266423e-06</v>
+        <v>2.308364476533481e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.65625</v>
       </c>
       <c r="AH9" t="n">
-        <v>508463.4245816452</v>
+        <v>614245.8950059449</v>
       </c>
     </row>
     <row r="10">
@@ -13685,28 +13685,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>407.0800471613796</v>
+        <v>492.5497241721317</v>
       </c>
       <c r="AB10" t="n">
-        <v>556.9848796303912</v>
+        <v>673.9282623725326</v>
       </c>
       <c r="AC10" t="n">
-        <v>503.8270244516543</v>
+        <v>609.6094948759543</v>
       </c>
       <c r="AD10" t="n">
-        <v>407080.0471613796</v>
+        <v>492549.7241721317</v>
       </c>
       <c r="AE10" t="n">
-        <v>556984.8796303913</v>
+        <v>673928.2623725326</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.271653344598404e-06</v>
+        <v>2.316676222822848e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.59548611111111</v>
       </c>
       <c r="AH10" t="n">
-        <v>503827.0244516543</v>
+        <v>609609.4948759542</v>
       </c>
     </row>
     <row r="11">
@@ -13791,28 +13791,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>408.4495787213729</v>
+        <v>493.919255732125</v>
       </c>
       <c r="AB11" t="n">
-        <v>558.8587331302423</v>
+        <v>675.8021158723836</v>
       </c>
       <c r="AC11" t="n">
-        <v>505.5220400034494</v>
+        <v>611.3045104277493</v>
       </c>
       <c r="AD11" t="n">
-        <v>408449.5787213729</v>
+        <v>493919.255732125</v>
       </c>
       <c r="AE11" t="n">
-        <v>558858.7331302423</v>
+        <v>675802.1158723836</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.271524462555127e-06</v>
+        <v>2.316441427729928e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.59548611111111</v>
       </c>
       <c r="AH11" t="n">
-        <v>505522.0400034494</v>
+        <v>611304.5104277493</v>
       </c>
     </row>
   </sheetData>
@@ -14088,28 +14088,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>401.808971515103</v>
+        <v>489.8354711857762</v>
       </c>
       <c r="AB2" t="n">
-        <v>549.7727613877105</v>
+        <v>670.2145016922103</v>
       </c>
       <c r="AC2" t="n">
-        <v>497.3032206517833</v>
+        <v>606.250170302666</v>
       </c>
       <c r="AD2" t="n">
-        <v>401808.971515103</v>
+        <v>489835.4711857762</v>
       </c>
       <c r="AE2" t="n">
-        <v>549772.7613877105</v>
+        <v>670214.5016922103</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.238131937532679e-06</v>
+        <v>2.426339670874742e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.61805555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>497303.2206517833</v>
+        <v>606250.170302666</v>
       </c>
     </row>
     <row r="3">
@@ -14194,28 +14194,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>357.0791042796041</v>
+        <v>436.2177026371893</v>
       </c>
       <c r="AB3" t="n">
-        <v>488.5713836936297</v>
+        <v>596.8523053150303</v>
       </c>
       <c r="AC3" t="n">
-        <v>441.9428165481526</v>
+        <v>539.8895589832348</v>
       </c>
       <c r="AD3" t="n">
-        <v>357079.104279604</v>
+        <v>436217.7026371894</v>
       </c>
       <c r="AE3" t="n">
-        <v>488571.3836936297</v>
+        <v>596852.3053150303</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.340551711323381e-06</v>
+        <v>2.627049427805503e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.11631944444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>441942.8165481526</v>
+        <v>539889.5589832348</v>
       </c>
     </row>
     <row r="4">
@@ -14300,28 +14300,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>332.3450920603312</v>
+        <v>411.5689417639371</v>
       </c>
       <c r="AB4" t="n">
-        <v>454.7292169876137</v>
+        <v>563.1267832616636</v>
       </c>
       <c r="AC4" t="n">
-        <v>411.3304987347796</v>
+        <v>509.382753420574</v>
       </c>
       <c r="AD4" t="n">
-        <v>332345.0920603313</v>
+        <v>411568.9417639371</v>
       </c>
       <c r="AE4" t="n">
-        <v>454729.2169876137</v>
+        <v>563126.7832616636</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.373264475137952e-06</v>
+        <v>2.691155904814263e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.69097222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>411330.4987347795</v>
+        <v>509382.753420574</v>
       </c>
     </row>
     <row r="5">
@@ -14406,28 +14406,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>332.3358064166586</v>
+        <v>411.5596561202644</v>
       </c>
       <c r="AB5" t="n">
-        <v>454.7165119602871</v>
+        <v>563.1140782343371</v>
       </c>
       <c r="AC5" t="n">
-        <v>411.3190062574294</v>
+        <v>509.3712609432237</v>
       </c>
       <c r="AD5" t="n">
-        <v>332335.8064166586</v>
+        <v>411559.6561202644</v>
       </c>
       <c r="AE5" t="n">
-        <v>454716.5119602871</v>
+        <v>563114.078234337</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.375223323270561e-06</v>
+        <v>2.694994616012392e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.66493055555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>411319.0062574294</v>
+        <v>509371.2609432237</v>
       </c>
     </row>
   </sheetData>
@@ -14703,28 +14703,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>942.443542772376</v>
+        <v>1074.727816651136</v>
       </c>
       <c r="AB2" t="n">
-        <v>1289.492832895867</v>
+        <v>1470.490012387068</v>
       </c>
       <c r="AC2" t="n">
-        <v>1166.425446738843</v>
+        <v>1330.148509450541</v>
       </c>
       <c r="AD2" t="n">
-        <v>942443.542772376</v>
+        <v>1074727.816651136</v>
       </c>
       <c r="AE2" t="n">
-        <v>1289492.832895867</v>
+        <v>1470490.012387068</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.678037954611275e-07</v>
+        <v>1.320992000976276e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.05729166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1166425.446738843</v>
+        <v>1330148.509450541</v>
       </c>
     </row>
     <row r="3">
@@ -14809,28 +14809,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>693.0203258566455</v>
+        <v>804.9530972468224</v>
       </c>
       <c r="AB3" t="n">
-        <v>948.2209837360422</v>
+        <v>1101.372339677441</v>
       </c>
       <c r="AC3" t="n">
-        <v>857.7241038847828</v>
+        <v>996.258909364412</v>
       </c>
       <c r="AD3" t="n">
-        <v>693020.3258566455</v>
+        <v>804953.0972468224</v>
       </c>
       <c r="AE3" t="n">
-        <v>948220.9837360422</v>
+        <v>1101372.339677441</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.575651897766151e-07</v>
+        <v>1.647472913765089e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.69270833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>857724.1038847829</v>
+        <v>996258.9093644121</v>
       </c>
     </row>
     <row r="4">
@@ -14915,28 +14915,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>633.4222193091452</v>
+        <v>735.0940328632854</v>
       </c>
       <c r="AB4" t="n">
-        <v>866.676225074857</v>
+        <v>1005.788085823479</v>
       </c>
       <c r="AC4" t="n">
-        <v>783.9618625414337</v>
+        <v>909.7970825449299</v>
       </c>
       <c r="AD4" t="n">
-        <v>633422.2193091452</v>
+        <v>735094.0328632854</v>
       </c>
       <c r="AE4" t="n">
-        <v>866676.225074857</v>
+        <v>1005788.085823479</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.029162427076986e-06</v>
+        <v>1.77065461503421e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.18229166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>783961.8625414337</v>
+        <v>909797.0825449299</v>
       </c>
     </row>
     <row r="5">
@@ -15021,28 +15021,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>597.293957908144</v>
+        <v>698.8804306077126</v>
       </c>
       <c r="AB5" t="n">
-        <v>817.2439439596038</v>
+        <v>956.239037586028</v>
       </c>
       <c r="AC5" t="n">
-        <v>739.2473289571776</v>
+        <v>864.9769259287352</v>
       </c>
       <c r="AD5" t="n">
-        <v>597293.957908144</v>
+        <v>698880.4306077126</v>
       </c>
       <c r="AE5" t="n">
-        <v>817243.9439596038</v>
+        <v>956239.037586028</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.07032126670153e-06</v>
+        <v>1.841467625122074e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.40972222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>739247.3289571776</v>
+        <v>864976.9259287352</v>
       </c>
     </row>
     <row r="6">
@@ -15127,28 +15127,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>572.1796468448722</v>
+        <v>673.8513708904613</v>
       </c>
       <c r="AB6" t="n">
-        <v>782.8814355976273</v>
+        <v>921.9931738767009</v>
       </c>
       <c r="AC6" t="n">
-        <v>708.1643301651849</v>
+        <v>833.9994393874547</v>
       </c>
       <c r="AD6" t="n">
-        <v>572179.6468448722</v>
+        <v>673851.3708904614</v>
       </c>
       <c r="AE6" t="n">
-        <v>782881.4355976273</v>
+        <v>921993.1738767009</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.094370472412383e-06</v>
+        <v>1.882843831597831e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.984375</v>
       </c>
       <c r="AH6" t="n">
-        <v>708164.3301651849</v>
+        <v>833999.4393874547</v>
       </c>
     </row>
     <row r="7">
@@ -15233,28 +15233,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>564.0322224155669</v>
+        <v>665.7039464611562</v>
       </c>
       <c r="AB7" t="n">
-        <v>771.733770054454</v>
+        <v>910.8455083335276</v>
       </c>
       <c r="AC7" t="n">
-        <v>698.0805821756053</v>
+        <v>823.9156913978751</v>
       </c>
       <c r="AD7" t="n">
-        <v>564032.2224155669</v>
+        <v>665703.9464611562</v>
       </c>
       <c r="AE7" t="n">
-        <v>771733.770054454</v>
+        <v>910845.5083335276</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.106813842531432e-06</v>
+        <v>1.904252416042999e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.76736111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>698080.5821756052</v>
+        <v>823915.6913978751</v>
       </c>
     </row>
     <row r="8">
@@ -15339,28 +15339,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>554.5506808621765</v>
+        <v>656.2224049077658</v>
       </c>
       <c r="AB8" t="n">
-        <v>758.7607066050139</v>
+        <v>897.8724448840874</v>
       </c>
       <c r="AC8" t="n">
-        <v>686.3456496939707</v>
+        <v>812.1807589162404</v>
       </c>
       <c r="AD8" t="n">
-        <v>554550.6808621765</v>
+        <v>656222.4049077658</v>
       </c>
       <c r="AE8" t="n">
-        <v>758760.7066050138</v>
+        <v>897872.4448840874</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.121482661537156e-06</v>
+        <v>1.929489843475476e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.52430555555556</v>
       </c>
       <c r="AH8" t="n">
-        <v>686345.6496939707</v>
+        <v>812180.7589162404</v>
       </c>
     </row>
     <row r="9">
@@ -15445,28 +15445,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>548.9041647615517</v>
+        <v>640.4002718256759</v>
       </c>
       <c r="AB9" t="n">
-        <v>751.0348941694297</v>
+        <v>876.2239043779246</v>
       </c>
       <c r="AC9" t="n">
-        <v>679.3571779539928</v>
+        <v>792.5983247320682</v>
       </c>
       <c r="AD9" t="n">
-        <v>548904.1647615517</v>
+        <v>640400.2718256759</v>
       </c>
       <c r="AE9" t="n">
-        <v>751034.8941694297</v>
+        <v>876223.9043779245</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.129187979187798e-06</v>
+        <v>1.9427466976896e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18.39409722222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>679357.1779539929</v>
+        <v>792598.3247320682</v>
       </c>
     </row>
     <row r="10">
@@ -15551,28 +15551,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>543.8153600365305</v>
+        <v>635.3114671006548</v>
       </c>
       <c r="AB10" t="n">
-        <v>744.0721670424358</v>
+        <v>869.2611772509307</v>
       </c>
       <c r="AC10" t="n">
-        <v>673.0589637317504</v>
+        <v>786.3001105098259</v>
       </c>
       <c r="AD10" t="n">
-        <v>543815.3600365305</v>
+        <v>635311.4671006548</v>
       </c>
       <c r="AE10" t="n">
-        <v>744072.1670424358</v>
+        <v>869261.1772509307</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.135218227783952e-06</v>
+        <v>1.953121627074565e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>19</v>
+        <v>18.29861111111111</v>
       </c>
       <c r="AH10" t="n">
-        <v>673058.9637317504</v>
+        <v>786300.1105098259</v>
       </c>
     </row>
     <row r="11">
@@ -15657,28 +15657,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>538.6143570163101</v>
+        <v>630.1104640804343</v>
       </c>
       <c r="AB11" t="n">
-        <v>736.9559252581109</v>
+        <v>862.1449354666058</v>
       </c>
       <c r="AC11" t="n">
-        <v>666.6218860756135</v>
+        <v>779.8630328536888</v>
       </c>
       <c r="AD11" t="n">
-        <v>538614.3570163101</v>
+        <v>630110.4640804343</v>
       </c>
       <c r="AE11" t="n">
-        <v>736955.925258111</v>
+        <v>862144.9354666058</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.141535631075161e-06</v>
+        <v>1.963990600715959e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>19</v>
+        <v>18.19444444444444</v>
       </c>
       <c r="AH11" t="n">
-        <v>666621.8860756134</v>
+        <v>779863.0328536888</v>
       </c>
     </row>
     <row r="12">
@@ -15763,28 +15763,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>533.3005547868628</v>
+        <v>624.7966618509871</v>
       </c>
       <c r="AB12" t="n">
-        <v>729.685346619372</v>
+        <v>854.8743568278668</v>
       </c>
       <c r="AC12" t="n">
-        <v>660.0452012578345</v>
+        <v>773.2863480359098</v>
       </c>
       <c r="AD12" t="n">
-        <v>533300.5547868628</v>
+        <v>624796.6618509871</v>
       </c>
       <c r="AE12" t="n">
-        <v>729685.346619372</v>
+        <v>854874.3568278668</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.147685527460922e-06</v>
+        <v>1.974571381874436e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>19</v>
+        <v>18.09895833333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>660045.2012578344</v>
+        <v>773286.3480359098</v>
       </c>
     </row>
     <row r="13">
@@ -15869,28 +15869,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>529.6212527013136</v>
+        <v>621.1173597654379</v>
       </c>
       <c r="AB13" t="n">
-        <v>724.6511631865714</v>
+        <v>849.8401733950662</v>
       </c>
       <c r="AC13" t="n">
-        <v>655.4914732263394</v>
+        <v>768.7326200044148</v>
       </c>
       <c r="AD13" t="n">
-        <v>529621.2527013136</v>
+        <v>621117.3597654379</v>
       </c>
       <c r="AE13" t="n">
-        <v>724651.1631865713</v>
+        <v>849840.1733950663</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.151251031591188e-06</v>
+        <v>1.980705764725071e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>19</v>
+        <v>18.046875</v>
       </c>
       <c r="AH13" t="n">
-        <v>655491.4732263394</v>
+        <v>768732.6200044148</v>
       </c>
     </row>
     <row r="14">
@@ -15975,28 +15975,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>526.2379547203565</v>
+        <v>617.7340617844807</v>
       </c>
       <c r="AB14" t="n">
-        <v>720.0219856284533</v>
+        <v>845.2109958369481</v>
       </c>
       <c r="AC14" t="n">
-        <v>651.3040978772767</v>
+        <v>764.5452446553521</v>
       </c>
       <c r="AD14" t="n">
-        <v>526237.9547203565</v>
+        <v>617734.0617844807</v>
       </c>
       <c r="AE14" t="n">
-        <v>720021.9856284533</v>
+        <v>845210.995836948</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.153715776057076e-06</v>
+        <v>1.984946311259402e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>19</v>
+        <v>18.00347222222222</v>
       </c>
       <c r="AH14" t="n">
-        <v>651304.0978772767</v>
+        <v>764545.2446553521</v>
       </c>
     </row>
     <row r="15">
@@ -16081,28 +16081,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>512.1142035099184</v>
+        <v>613.700586700936</v>
       </c>
       <c r="AB15" t="n">
-        <v>700.6972461264043</v>
+        <v>839.6922172832801</v>
       </c>
       <c r="AC15" t="n">
-        <v>633.823684390861</v>
+        <v>759.5531705811918</v>
       </c>
       <c r="AD15" t="n">
-        <v>512114.2035099184</v>
+        <v>613700.586700936</v>
       </c>
       <c r="AE15" t="n">
-        <v>700697.2461264043</v>
+        <v>839692.2172832801</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.156587323007626e-06</v>
+        <v>1.989886753823672e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>18</v>
+        <v>17.96006944444444</v>
       </c>
       <c r="AH15" t="n">
-        <v>633823.684390861</v>
+        <v>759553.1705811918</v>
       </c>
     </row>
     <row r="16">
@@ -16187,28 +16187,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>508.1815305904394</v>
+        <v>609.7679137814571</v>
       </c>
       <c r="AB16" t="n">
-        <v>695.3163895406889</v>
+        <v>834.3113606975646</v>
       </c>
       <c r="AC16" t="n">
-        <v>628.9563692056065</v>
+        <v>754.6858553959374</v>
       </c>
       <c r="AD16" t="n">
-        <v>508181.5305904394</v>
+        <v>609767.9137814571</v>
       </c>
       <c r="AE16" t="n">
-        <v>695316.3895406888</v>
+        <v>834311.3606975647</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.159698165537388e-06</v>
+        <v>1.995238899934964e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>18</v>
+        <v>17.90798611111111</v>
       </c>
       <c r="AH16" t="n">
-        <v>628956.3692056065</v>
+        <v>754685.8553959375</v>
       </c>
     </row>
     <row r="17">
@@ -16293,28 +16293,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>503.7417054704649</v>
+        <v>605.3280886614825</v>
       </c>
       <c r="AB17" t="n">
-        <v>689.2416249402794</v>
+        <v>828.2365960971553</v>
       </c>
       <c r="AC17" t="n">
-        <v>623.4613716126746</v>
+        <v>749.1908578030054</v>
       </c>
       <c r="AD17" t="n">
-        <v>503741.7054704649</v>
+        <v>605328.0886614826</v>
       </c>
       <c r="AE17" t="n">
-        <v>689241.6249402794</v>
+        <v>828236.5960971552</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.162569712487937e-06</v>
+        <v>2.000179342499233e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>18</v>
+        <v>17.86458333333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>623461.3716126746</v>
+        <v>749190.8578030054</v>
       </c>
     </row>
     <row r="18">
@@ -16399,28 +16399,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>502.6132293377718</v>
+        <v>604.1996125287893</v>
       </c>
       <c r="AB18" t="n">
-        <v>687.6975941106753</v>
+        <v>826.6925652675512</v>
       </c>
       <c r="AC18" t="n">
-        <v>622.064700918387</v>
+        <v>747.7941871087179</v>
       </c>
       <c r="AD18" t="n">
-        <v>502613.2293377718</v>
+        <v>604199.6125287893</v>
       </c>
       <c r="AE18" t="n">
-        <v>687697.5941106753</v>
+        <v>826692.5652675512</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.162641501161701e-06</v>
+        <v>2.00030285356334e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>18</v>
+        <v>17.86458333333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>622064.7009183869</v>
+        <v>747794.1871087179</v>
       </c>
     </row>
     <row r="19">
@@ -16505,28 +16505,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>498.0384434271898</v>
+        <v>599.6248266182074</v>
       </c>
       <c r="AB19" t="n">
-        <v>681.4381702025067</v>
+        <v>820.4331413593825</v>
       </c>
       <c r="AC19" t="n">
-        <v>616.4026676428574</v>
+        <v>742.1321538331882</v>
       </c>
       <c r="AD19" t="n">
-        <v>498038.4434271898</v>
+        <v>599624.8266182074</v>
       </c>
       <c r="AE19" t="n">
-        <v>681438.1702025067</v>
+        <v>820433.1413593825</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.165345541206802e-06</v>
+        <v>2.004955103644694e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>18</v>
+        <v>17.82118055555556</v>
       </c>
       <c r="AH19" t="n">
-        <v>616402.6676428574</v>
+        <v>742132.1538331882</v>
       </c>
     </row>
     <row r="20">
@@ -16611,28 +16611,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>495.8414770090154</v>
+        <v>597.427860200033</v>
       </c>
       <c r="AB20" t="n">
-        <v>678.4321838258426</v>
+        <v>817.4271549827184</v>
       </c>
       <c r="AC20" t="n">
-        <v>613.6835683870537</v>
+        <v>739.4130545773846</v>
       </c>
       <c r="AD20" t="n">
-        <v>495841.4770090154</v>
+        <v>597427.8602000331</v>
       </c>
       <c r="AE20" t="n">
-        <v>678432.1838258426</v>
+        <v>817427.1549827184</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.165034456953826e-06</v>
+        <v>2.004419889033564e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>18</v>
+        <v>17.82986111111111</v>
       </c>
       <c r="AH20" t="n">
-        <v>613683.5683870537</v>
+        <v>739413.0545773846</v>
       </c>
     </row>
     <row r="21">
@@ -16717,28 +16717,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>492.2649581995559</v>
+        <v>583.8463166097008</v>
       </c>
       <c r="AB21" t="n">
-        <v>673.5386330058662</v>
+        <v>798.8442878670104</v>
       </c>
       <c r="AC21" t="n">
-        <v>609.2570511891942</v>
+        <v>722.6037102179819</v>
       </c>
       <c r="AD21" t="n">
-        <v>492264.9581995559</v>
+        <v>583846.3166097008</v>
       </c>
       <c r="AE21" t="n">
-        <v>673538.6330058662</v>
+        <v>798844.2878670103</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.168647820199934e-06</v>
+        <v>2.010636612593604e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>18</v>
+        <v>17.77777777777778</v>
       </c>
       <c r="AH21" t="n">
-        <v>609257.0511891942</v>
+        <v>722603.7102179818</v>
       </c>
     </row>
     <row r="22">
@@ -16823,28 +16823,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>493.8669663591393</v>
+        <v>585.448324769284</v>
       </c>
       <c r="AB22" t="n">
-        <v>675.73057124542</v>
+        <v>801.0362261065643</v>
       </c>
       <c r="AC22" t="n">
-        <v>611.2397939195696</v>
+        <v>724.5864529483574</v>
       </c>
       <c r="AD22" t="n">
-        <v>493866.9663591392</v>
+        <v>585448.324769284</v>
       </c>
       <c r="AE22" t="n">
-        <v>675730.57124542</v>
+        <v>801036.2261065643</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.168432454178643e-06</v>
+        <v>2.010266079401283e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>18</v>
+        <v>17.77777777777778</v>
       </c>
       <c r="AH22" t="n">
-        <v>611239.7939195696</v>
+        <v>724586.4529483574</v>
       </c>
     </row>
   </sheetData>
@@ -17120,28 +17120,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>361.5065315543093</v>
+        <v>439.0639004091519</v>
       </c>
       <c r="AB2" t="n">
-        <v>494.6291850151875</v>
+        <v>600.7465986720133</v>
       </c>
       <c r="AC2" t="n">
-        <v>447.4224698137585</v>
+        <v>543.4121864479023</v>
       </c>
       <c r="AD2" t="n">
-        <v>361506.5315543093</v>
+        <v>439063.9004091519</v>
       </c>
       <c r="AE2" t="n">
-        <v>494629.1850151875</v>
+        <v>600746.5986720133</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.305800074001698e-06</v>
+        <v>2.617685668120558e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.03645833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>447422.4698137586</v>
+        <v>543412.1864479022</v>
       </c>
     </row>
     <row r="3">
@@ -17226,28 +17226,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>313.7160014414402</v>
+        <v>391.2732807877318</v>
       </c>
       <c r="AB3" t="n">
-        <v>429.2400733453727</v>
+        <v>535.35736453265</v>
       </c>
       <c r="AC3" t="n">
-        <v>388.2740031875162</v>
+        <v>484.2636090404334</v>
       </c>
       <c r="AD3" t="n">
-        <v>313716.0014414402</v>
+        <v>391273.2807877318</v>
       </c>
       <c r="AE3" t="n">
-        <v>429240.0733453727</v>
+        <v>535357.36453265</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.395465184243585e-06</v>
+        <v>2.797433761786489e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.8125</v>
       </c>
       <c r="AH3" t="n">
-        <v>388274.0031875162</v>
+        <v>484263.6090404334</v>
       </c>
     </row>
     <row r="4">
@@ -17332,28 +17332,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>312.1934469423456</v>
+        <v>389.7507262886372</v>
       </c>
       <c r="AB4" t="n">
-        <v>427.1568471093477</v>
+        <v>533.274138296625</v>
       </c>
       <c r="AC4" t="n">
-        <v>386.389597139631</v>
+        <v>482.3792029925482</v>
       </c>
       <c r="AD4" t="n">
-        <v>312193.4469423456</v>
+        <v>389750.7262886371</v>
       </c>
       <c r="AE4" t="n">
-        <v>427156.8471093477</v>
+        <v>533274.138296625</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.401421857169267e-06</v>
+        <v>2.809374867977007e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.734375</v>
       </c>
       <c r="AH4" t="n">
-        <v>386389.597139631</v>
+        <v>482379.2029925482</v>
       </c>
     </row>
   </sheetData>
@@ -17629,28 +17629,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>742.8048703318932</v>
+        <v>860.4906399176522</v>
       </c>
       <c r="AB2" t="n">
-        <v>1016.338393826169</v>
+        <v>1177.36125570313</v>
       </c>
       <c r="AC2" t="n">
-        <v>919.340483959293</v>
+        <v>1064.995549895723</v>
       </c>
       <c r="AD2" t="n">
-        <v>742804.8703318932</v>
+        <v>860490.6399176521</v>
       </c>
       <c r="AE2" t="n">
-        <v>1016338.393826169</v>
+        <v>1177361.25570313</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.893509022234046e-07</v>
+        <v>1.575106532746092e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.27951388888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>919340.483959293</v>
+        <v>1064995.549895723</v>
       </c>
     </row>
     <row r="3">
@@ -17735,28 +17735,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>583.0846112951294</v>
+        <v>681.1418773922583</v>
       </c>
       <c r="AB3" t="n">
-        <v>797.802089051547</v>
+        <v>931.9683665069065</v>
       </c>
       <c r="AC3" t="n">
-        <v>721.6609773947312</v>
+        <v>843.0226136333043</v>
       </c>
       <c r="AD3" t="n">
-        <v>583084.6112951294</v>
+        <v>681141.8773922583</v>
       </c>
       <c r="AE3" t="n">
-        <v>797802.089051547</v>
+        <v>931968.3665069065</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.058747520026895e-06</v>
+        <v>1.87512053021359e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.39930555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>721660.9773947311</v>
+        <v>843022.6136333044</v>
       </c>
     </row>
     <row r="4">
@@ -17841,28 +17841,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>540.1596484318961</v>
+        <v>638.1315736744534</v>
       </c>
       <c r="AB4" t="n">
-        <v>739.0702611463616</v>
+        <v>873.1197714795235</v>
       </c>
       <c r="AC4" t="n">
-        <v>668.5344327141785</v>
+        <v>789.7904459208127</v>
       </c>
       <c r="AD4" t="n">
-        <v>540159.6484318961</v>
+        <v>638131.5736744534</v>
       </c>
       <c r="AE4" t="n">
-        <v>739070.2611463616</v>
+        <v>873119.7714795235</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.118803833050485e-06</v>
+        <v>1.981484723176807e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.30555555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>668534.4327141785</v>
+        <v>789790.4459208127</v>
       </c>
     </row>
     <row r="5">
@@ -17947,28 +17947,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>512.580685578956</v>
+        <v>610.637862167534</v>
       </c>
       <c r="AB5" t="n">
-        <v>701.335507472998</v>
+        <v>835.5016624588091</v>
       </c>
       <c r="AC5" t="n">
-        <v>634.4010309703413</v>
+        <v>755.7625564276879</v>
       </c>
       <c r="AD5" t="n">
-        <v>512580.685578956</v>
+        <v>610637.862167534</v>
       </c>
       <c r="AE5" t="n">
-        <v>701335.507472998</v>
+        <v>835501.6624588091</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.151220310212762e-06</v>
+        <v>2.038896712999123e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.75868055555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>634401.0309703413</v>
+        <v>755762.5564276879</v>
       </c>
     </row>
     <row r="6">
@@ -18053,28 +18053,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>500.3680353865113</v>
+        <v>588.6110497393254</v>
       </c>
       <c r="AB6" t="n">
-        <v>684.6256206955942</v>
+        <v>805.3636059401529</v>
       </c>
       <c r="AC6" t="n">
-        <v>619.2859123344996</v>
+        <v>728.5008337241442</v>
       </c>
       <c r="AD6" t="n">
-        <v>500368.0353865114</v>
+        <v>588611.0497393254</v>
       </c>
       <c r="AE6" t="n">
-        <v>684625.6206955942</v>
+        <v>805363.6059401529</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.17286446610776e-06</v>
+        <v>2.077230121399288e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.41145833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>619285.9123344995</v>
+        <v>728500.8337241441</v>
       </c>
     </row>
     <row r="7">
@@ -18159,28 +18159,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>492.4494992419292</v>
+        <v>580.6925135947432</v>
       </c>
       <c r="AB7" t="n">
-        <v>673.7911302014176</v>
+        <v>794.5291154459761</v>
       </c>
       <c r="AC7" t="n">
-        <v>609.4854504067841</v>
+        <v>718.7003717964287</v>
       </c>
       <c r="AD7" t="n">
-        <v>492449.4992419292</v>
+        <v>580692.5135947432</v>
       </c>
       <c r="AE7" t="n">
-        <v>673791.1302014176</v>
+        <v>794529.1154459761</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.185129487781591e-06</v>
+        <v>2.098952386159382e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.22048611111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>609485.4504067842</v>
+        <v>718700.3717964287</v>
       </c>
     </row>
     <row r="8">
@@ -18265,28 +18265,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>484.938982138189</v>
+        <v>573.181996491003</v>
       </c>
       <c r="AB8" t="n">
-        <v>663.5149093594505</v>
+        <v>784.252894604009</v>
       </c>
       <c r="AC8" t="n">
-        <v>600.1899776592078</v>
+        <v>709.4048990488523</v>
       </c>
       <c r="AD8" t="n">
-        <v>484938.982138189</v>
+        <v>573181.996491003</v>
       </c>
       <c r="AE8" t="n">
-        <v>663514.9093594505</v>
+        <v>784252.894604009</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.195802295688435e-06</v>
+        <v>2.11785472202567e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.05555555555556</v>
       </c>
       <c r="AH8" t="n">
-        <v>600189.9776592078</v>
+        <v>709404.8990488523</v>
       </c>
     </row>
     <row r="9">
@@ -18371,28 +18371,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>469.2784510745607</v>
+        <v>567.2502868085669</v>
       </c>
       <c r="AB9" t="n">
-        <v>642.0874798643245</v>
+        <v>776.1368677279379</v>
       </c>
       <c r="AC9" t="n">
-        <v>580.8075519615105</v>
+        <v>702.0634543869181</v>
       </c>
       <c r="AD9" t="n">
-        <v>469278.4510745608</v>
+        <v>567250.2868085669</v>
       </c>
       <c r="AE9" t="n">
-        <v>642087.4798643244</v>
+        <v>776136.8677279379</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.201872610675078e-06</v>
+        <v>2.128605700933302e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.96875</v>
       </c>
       <c r="AH9" t="n">
-        <v>580807.5519615106</v>
+        <v>702063.4543869181</v>
       </c>
     </row>
     <row r="10">
@@ -18477,28 +18477,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>464.3135322036875</v>
+        <v>562.2853679376939</v>
       </c>
       <c r="AB10" t="n">
-        <v>635.2942588284341</v>
+        <v>769.3436466920475</v>
       </c>
       <c r="AC10" t="n">
-        <v>574.6626664069398</v>
+        <v>695.9185688323477</v>
       </c>
       <c r="AD10" t="n">
-        <v>464313.5322036875</v>
+        <v>562285.3679376938</v>
       </c>
       <c r="AE10" t="n">
-        <v>635294.258828434</v>
+        <v>769343.6466920475</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.206027293473313e-06</v>
+        <v>2.135963952890576e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.90798611111111</v>
       </c>
       <c r="AH10" t="n">
-        <v>574662.6664069399</v>
+        <v>695918.5688323476</v>
       </c>
     </row>
     <row r="11">
@@ -18583,28 +18583,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>458.376223556183</v>
+        <v>546.7044892550176</v>
       </c>
       <c r="AB11" t="n">
-        <v>627.1705712013475</v>
+        <v>748.0252010985554</v>
       </c>
       <c r="AC11" t="n">
-        <v>567.3142921253152</v>
+        <v>676.6347257656721</v>
       </c>
       <c r="AD11" t="n">
-        <v>458376.223556183</v>
+        <v>546704.4892550176</v>
       </c>
       <c r="AE11" t="n">
-        <v>627170.5712013475</v>
+        <v>748025.2010985553</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.21381421392749e-06</v>
+        <v>2.149755167636842e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.79513888888889</v>
       </c>
       <c r="AH11" t="n">
-        <v>567314.2921253152</v>
+        <v>676634.725765672</v>
       </c>
     </row>
     <row r="12">
@@ -18689,28 +18689,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>453.4046436616053</v>
+        <v>541.7329093604397</v>
       </c>
       <c r="AB12" t="n">
-        <v>620.3682362589607</v>
+        <v>741.2228661561685</v>
       </c>
       <c r="AC12" t="n">
-        <v>561.1611624826928</v>
+        <v>670.4815961230495</v>
       </c>
       <c r="AD12" t="n">
-        <v>453404.6436616053</v>
+        <v>541732.9093604397</v>
       </c>
       <c r="AE12" t="n">
-        <v>620368.2362589607</v>
+        <v>741222.8661561685</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.215680089435679e-06</v>
+        <v>2.15305977180927e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>17.76041666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>561161.1624826929</v>
+        <v>670481.5961230495</v>
       </c>
     </row>
     <row r="13">
@@ -18795,28 +18795,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>447.8615906663219</v>
+        <v>536.1898563651565</v>
       </c>
       <c r="AB13" t="n">
-        <v>612.7839866085749</v>
+        <v>733.6386165057827</v>
       </c>
       <c r="AC13" t="n">
-        <v>554.3007429743785</v>
+        <v>663.6211766147353</v>
       </c>
       <c r="AD13" t="n">
-        <v>447861.5906663219</v>
+        <v>536189.8563651565</v>
       </c>
       <c r="AE13" t="n">
-        <v>612783.9866085749</v>
+        <v>733638.6165057827</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.221128445919592e-06</v>
+        <v>2.162709215992759e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>17.68229166666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>554300.7429743785</v>
+        <v>663621.1766147353</v>
       </c>
     </row>
     <row r="14">
@@ -18901,28 +18901,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>444.0520978870824</v>
+        <v>532.3803635859169</v>
       </c>
       <c r="AB14" t="n">
-        <v>607.5716705250591</v>
+        <v>728.426300422267</v>
       </c>
       <c r="AC14" t="n">
-        <v>549.5858830223419</v>
+        <v>658.9063166626987</v>
       </c>
       <c r="AD14" t="n">
-        <v>444052.0978870824</v>
+        <v>532380.3635859169</v>
       </c>
       <c r="AE14" t="n">
-        <v>607571.6705250591</v>
+        <v>728426.3004222669</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.220606000777299e-06</v>
+        <v>2.16178392682448e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>18</v>
+        <v>17.69097222222222</v>
       </c>
       <c r="AH14" t="n">
-        <v>549585.8830223419</v>
+        <v>658906.3166626988</v>
       </c>
     </row>
     <row r="15">
@@ -19007,28 +19007,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>444.5243594221838</v>
+        <v>532.8526251210184</v>
       </c>
       <c r="AB15" t="n">
-        <v>608.2178395920935</v>
+        <v>729.0724694893014</v>
       </c>
       <c r="AC15" t="n">
-        <v>550.1703826205227</v>
+        <v>659.4908162608793</v>
       </c>
       <c r="AD15" t="n">
-        <v>444524.3594221838</v>
+        <v>532852.6251210184</v>
       </c>
       <c r="AE15" t="n">
-        <v>608217.8395920935</v>
+        <v>729072.4694893014</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.22336749652942e-06</v>
+        <v>2.166674740999673e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>18</v>
+        <v>17.65625</v>
       </c>
       <c r="AH15" t="n">
-        <v>550170.3826205226</v>
+        <v>659490.8162608794</v>
       </c>
     </row>
   </sheetData>
@@ -19304,28 +19304,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>835.1306401990946</v>
+        <v>965.1591322188279</v>
       </c>
       <c r="AB2" t="n">
-        <v>1142.662585283973</v>
+        <v>1320.573304517582</v>
       </c>
       <c r="AC2" t="n">
-        <v>1033.608471881481</v>
+        <v>1194.539641770697</v>
       </c>
       <c r="AD2" t="n">
-        <v>835130.6401990947</v>
+        <v>965159.132218828</v>
       </c>
       <c r="AE2" t="n">
-        <v>1142662.585283973</v>
+        <v>1320573.304517582</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.253164056647072e-07</v>
+        <v>1.439279745507363e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.64236111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>1033608.471881481</v>
+        <v>1194539.641770697</v>
       </c>
     </row>
     <row r="3">
@@ -19410,28 +19410,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>641.5492223761855</v>
+        <v>741.5712288229929</v>
       </c>
       <c r="AB3" t="n">
-        <v>877.7959492092526</v>
+        <v>1014.650471089269</v>
       </c>
       <c r="AC3" t="n">
-        <v>794.0203358110732</v>
+        <v>917.8136541993887</v>
       </c>
       <c r="AD3" t="n">
-        <v>641549.2223761855</v>
+        <v>741571.2288229929</v>
       </c>
       <c r="AE3" t="n">
-        <v>877795.9492092526</v>
+        <v>1014650.471089269</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.007135623275111e-06</v>
+        <v>1.756356584710489e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.00694444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>794020.3358110732</v>
+        <v>917813.6541993887</v>
       </c>
     </row>
     <row r="4">
@@ -19516,28 +19516,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>579.9355549803911</v>
+        <v>679.9574719186475</v>
       </c>
       <c r="AB4" t="n">
-        <v>793.4934112751623</v>
+        <v>930.3478106856304</v>
       </c>
       <c r="AC4" t="n">
-        <v>717.7635137780572</v>
+        <v>841.5567213851463</v>
       </c>
       <c r="AD4" t="n">
-        <v>579935.5549803911</v>
+        <v>679957.4719186474</v>
       </c>
       <c r="AE4" t="n">
-        <v>793493.4112751624</v>
+        <v>930347.8106856304</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.074949145649711e-06</v>
+        <v>1.874617446308973e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.6875</v>
       </c>
       <c r="AH4" t="n">
-        <v>717763.5137780573</v>
+        <v>841556.7213851463</v>
       </c>
     </row>
     <row r="5">
@@ -19622,28 +19622,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>561.0012363160008</v>
+        <v>651.0210510689828</v>
       </c>
       <c r="AB5" t="n">
-        <v>767.5866411553584</v>
+        <v>890.755723094328</v>
       </c>
       <c r="AC5" t="n">
-        <v>694.3292494381072</v>
+        <v>805.7432470657138</v>
       </c>
       <c r="AD5" t="n">
-        <v>561001.2363160008</v>
+        <v>651021.0510689828</v>
       </c>
       <c r="AE5" t="n">
-        <v>767586.6411553584</v>
+        <v>890755.723094328</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.108100256515799e-06</v>
+        <v>1.932430088930806e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.09722222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>694329.2494381072</v>
+        <v>805743.2470657139</v>
       </c>
     </row>
     <row r="6">
@@ -19728,28 +19728,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>537.8466109067049</v>
+        <v>637.7831869903898</v>
       </c>
       <c r="AB6" t="n">
-        <v>735.9054611603814</v>
+        <v>872.6430934486516</v>
       </c>
       <c r="AC6" t="n">
-        <v>665.6716767970354</v>
+        <v>789.3592613721855</v>
       </c>
       <c r="AD6" t="n">
-        <v>537846.6109067049</v>
+        <v>637783.1869903898</v>
       </c>
       <c r="AE6" t="n">
-        <v>735905.4611603813</v>
+        <v>872643.0934486516</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.129745981846009e-06</v>
+        <v>1.970178343819179e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.73263888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>665671.6767970354</v>
+        <v>789359.2613721855</v>
       </c>
     </row>
     <row r="7">
@@ -19834,28 +19834,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>527.3625657055806</v>
+        <v>617.2970396039907</v>
       </c>
       <c r="AB7" t="n">
-        <v>721.5607279927718</v>
+        <v>844.6130428095438</v>
       </c>
       <c r="AC7" t="n">
-        <v>652.6959848299831</v>
+        <v>764.0043594256509</v>
       </c>
       <c r="AD7" t="n">
-        <v>527362.5657055805</v>
+        <v>617297.0396039907</v>
       </c>
       <c r="AE7" t="n">
-        <v>721560.7279927718</v>
+        <v>844613.0428095438</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.146955308516199e-06</v>
+        <v>2.000189906827277e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.44618055555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>652695.9848299831</v>
+        <v>764004.3594256509</v>
       </c>
     </row>
     <row r="8">
@@ -19940,28 +19940,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>520.3191096882344</v>
+        <v>610.2535835866446</v>
       </c>
       <c r="AB8" t="n">
-        <v>711.92356073449</v>
+        <v>834.9758755512621</v>
       </c>
       <c r="AC8" t="n">
-        <v>643.9785752889826</v>
+        <v>755.2869498846503</v>
       </c>
       <c r="AD8" t="n">
-        <v>520319.1096882344</v>
+        <v>610253.5835866446</v>
       </c>
       <c r="AE8" t="n">
-        <v>711923.56073449</v>
+        <v>834975.8755512621</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.157022520860092e-06</v>
+        <v>2.017746246094054e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.28993055555556</v>
       </c>
       <c r="AH8" t="n">
-        <v>643978.5752889826</v>
+        <v>755286.9498846503</v>
       </c>
     </row>
     <row r="9">
@@ -20046,28 +20046,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>515.1133240468613</v>
+        <v>605.0477979452714</v>
       </c>
       <c r="AB9" t="n">
-        <v>704.8007751569096</v>
+        <v>827.8530899736816</v>
       </c>
       <c r="AC9" t="n">
-        <v>637.5355783700342</v>
+        <v>748.8439529657018</v>
       </c>
       <c r="AD9" t="n">
-        <v>515113.3240468613</v>
+        <v>605047.7979452715</v>
       </c>
       <c r="AE9" t="n">
-        <v>704800.7751569096</v>
+        <v>827853.0899736816</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.162677710360778e-06</v>
+        <v>2.027608402776602e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18.203125</v>
       </c>
       <c r="AH9" t="n">
-        <v>637535.5783700341</v>
+        <v>748843.9529657018</v>
       </c>
     </row>
     <row r="10">
@@ -20152,28 +20152,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>508.5048270569386</v>
+        <v>598.4393009553489</v>
       </c>
       <c r="AB10" t="n">
-        <v>695.7587380289865</v>
+        <v>818.8110528457584</v>
       </c>
       <c r="AC10" t="n">
-        <v>629.3565005750212</v>
+        <v>740.6648751706888</v>
       </c>
       <c r="AD10" t="n">
-        <v>508504.8270569385</v>
+        <v>598439.3009553489</v>
       </c>
       <c r="AE10" t="n">
-        <v>695758.7380289865</v>
+        <v>818811.0528457584</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.171916144933018e-06</v>
+        <v>2.043719425977834e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>19</v>
+        <v>18.05555555555556</v>
       </c>
       <c r="AH10" t="n">
-        <v>629356.5005750211</v>
+        <v>740664.8751706888</v>
       </c>
     </row>
     <row r="11">
@@ -20258,28 +20258,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>493.4130950318411</v>
+        <v>593.2643302609542</v>
       </c>
       <c r="AB11" t="n">
-        <v>675.109564472021</v>
+        <v>811.7304296380937</v>
       </c>
       <c r="AC11" t="n">
-        <v>610.6780551610352</v>
+        <v>734.2600167042466</v>
       </c>
       <c r="AD11" t="n">
-        <v>493413.0950318411</v>
+        <v>593264.3302609542</v>
       </c>
       <c r="AE11" t="n">
-        <v>675109.5644720211</v>
+        <v>811730.4296380937</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.176669429211612e-06</v>
+        <v>2.052008738706699e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.98611111111111</v>
       </c>
       <c r="AH11" t="n">
-        <v>610678.0551610353</v>
+        <v>734260.0167042466</v>
       </c>
     </row>
     <row r="12">
@@ -20364,28 +20364,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>489.7460860669638</v>
+        <v>589.5973212960769</v>
       </c>
       <c r="AB12" t="n">
-        <v>670.0922010292578</v>
+        <v>806.7130661953305</v>
       </c>
       <c r="AC12" t="n">
-        <v>606.1395418433356</v>
+        <v>729.7215033865468</v>
       </c>
       <c r="AD12" t="n">
-        <v>489746.0860669637</v>
+        <v>589597.3212960769</v>
       </c>
       <c r="AE12" t="n">
-        <v>670092.2010292578</v>
+        <v>806713.0661953305</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.1804964324513e-06</v>
+        <v>2.058682698185837e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>17.92534722222222</v>
       </c>
       <c r="AH12" t="n">
-        <v>606139.5418433356</v>
+        <v>729721.5033865469</v>
       </c>
     </row>
     <row r="13">
@@ -20470,28 +20470,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>485.6739985119447</v>
+        <v>585.5252337410578</v>
       </c>
       <c r="AB13" t="n">
-        <v>664.5205911886567</v>
+        <v>801.1414563547294</v>
       </c>
       <c r="AC13" t="n">
-        <v>601.099678626118</v>
+        <v>724.6816401693293</v>
       </c>
       <c r="AD13" t="n">
-        <v>485673.9985119447</v>
+        <v>585525.2337410578</v>
       </c>
       <c r="AE13" t="n">
-        <v>664520.5911886566</v>
+        <v>801141.4563547294</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.182617128514057e-06</v>
+        <v>2.062381006941793e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>17.890625</v>
       </c>
       <c r="AH13" t="n">
-        <v>601099.678626118</v>
+        <v>724681.6401693292</v>
       </c>
     </row>
     <row r="14">
@@ -20576,28 +20576,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>481.587261950653</v>
+        <v>581.438497179766</v>
       </c>
       <c r="AB14" t="n">
-        <v>658.9289379314049</v>
+        <v>795.5498030974775</v>
       </c>
       <c r="AC14" t="n">
-        <v>596.0416849078035</v>
+        <v>719.6236464510149</v>
       </c>
       <c r="AD14" t="n">
-        <v>481587.261950653</v>
+        <v>581438.4971797661</v>
       </c>
       <c r="AE14" t="n">
-        <v>658928.9379314049</v>
+        <v>795549.8030974775</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.185347219997146e-06</v>
+        <v>2.067142048098885e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>18</v>
+        <v>17.84722222222222</v>
       </c>
       <c r="AH14" t="n">
-        <v>596041.6849078035</v>
+        <v>719623.6464510149</v>
       </c>
     </row>
     <row r="15">
@@ -20682,28 +20682,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>476.9812287194333</v>
+        <v>567.000953963864</v>
       </c>
       <c r="AB15" t="n">
-        <v>652.6267600606053</v>
+        <v>775.7957195300266</v>
       </c>
       <c r="AC15" t="n">
-        <v>590.340978047831</v>
+        <v>701.7548648942111</v>
       </c>
       <c r="AD15" t="n">
-        <v>476981.2287194332</v>
+        <v>567000.953963864</v>
       </c>
       <c r="AE15" t="n">
-        <v>652626.7600606054</v>
+        <v>775795.7195300267</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.188832961801448e-06</v>
+        <v>2.073220877433387e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>18</v>
+        <v>17.79513888888889</v>
       </c>
       <c r="AH15" t="n">
-        <v>590340.978047831</v>
+        <v>701754.8648942111</v>
       </c>
     </row>
     <row r="16">
@@ -20788,28 +20788,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>473.4937930336642</v>
+        <v>563.5135182780949</v>
       </c>
       <c r="AB16" t="n">
-        <v>647.8550967005322</v>
+        <v>771.0240561699533</v>
       </c>
       <c r="AC16" t="n">
-        <v>586.0247155417716</v>
+        <v>697.4386023881517</v>
       </c>
       <c r="AD16" t="n">
-        <v>473493.7930336642</v>
+        <v>563513.5182780949</v>
       </c>
       <c r="AE16" t="n">
-        <v>647855.0967005321</v>
+        <v>771024.0561699533</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.191831187269484e-06</v>
+        <v>2.078449520846979e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>18</v>
+        <v>17.75173611111111</v>
       </c>
       <c r="AH16" t="n">
-        <v>586024.7155417716</v>
+        <v>697438.6023881517</v>
       </c>
     </row>
     <row r="17">
@@ -20894,28 +20894,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>467.8705552602249</v>
+        <v>557.8902805046557</v>
       </c>
       <c r="AB17" t="n">
-        <v>640.1611346991706</v>
+        <v>763.3300941685918</v>
       </c>
       <c r="AC17" t="n">
-        <v>579.0650544752765</v>
+        <v>690.4789413216564</v>
       </c>
       <c r="AD17" t="n">
-        <v>467870.5552602249</v>
+        <v>557890.2805046557</v>
       </c>
       <c r="AE17" t="n">
-        <v>640161.1346991706</v>
+        <v>763330.0941685918</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.194780661103893e-06</v>
+        <v>2.08359314566848e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>18</v>
+        <v>17.70833333333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>579065.0544752765</v>
+        <v>690478.9413216565</v>
       </c>
     </row>
     <row r="18">
@@ -21000,28 +21000,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>469.1401130964568</v>
+        <v>559.1598383408875</v>
       </c>
       <c r="AB18" t="n">
-        <v>641.8981997396418</v>
+        <v>765.067159209063</v>
       </c>
       <c r="AC18" t="n">
-        <v>580.6363364662712</v>
+        <v>692.0502233126513</v>
       </c>
       <c r="AD18" t="n">
-        <v>469140.1130964568</v>
+        <v>559159.8383408876</v>
       </c>
       <c r="AE18" t="n">
-        <v>641898.1997396417</v>
+        <v>765067.159209063</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.193878755881801e-06</v>
+        <v>2.082020301714798e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>18</v>
+        <v>17.72569444444444</v>
       </c>
       <c r="AH18" t="n">
-        <v>580636.3364662712</v>
+        <v>692050.2233126513</v>
       </c>
     </row>
   </sheetData>
@@ -21297,28 +21297,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1045.407337992034</v>
+        <v>1200.383376995203</v>
       </c>
       <c r="AB2" t="n">
-        <v>1430.372439957459</v>
+        <v>1642.4174935819</v>
       </c>
       <c r="AC2" t="n">
-        <v>1293.859701828246</v>
+        <v>1485.667473141873</v>
       </c>
       <c r="AD2" t="n">
-        <v>1045407.337992034</v>
+        <v>1200383.376995203</v>
       </c>
       <c r="AE2" t="n">
-        <v>1430372.439957459</v>
+        <v>1642417.4935819</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.161483460392022e-07</v>
+        <v>1.21740472454761e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.515625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1293859.701828246</v>
+        <v>1485667.473141873</v>
       </c>
     </row>
     <row r="3">
@@ -21403,28 +21403,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>754.8486396555072</v>
+        <v>868.4750668718295</v>
       </c>
       <c r="AB3" t="n">
-        <v>1032.81721034834</v>
+        <v>1188.285900909892</v>
       </c>
       <c r="AC3" t="n">
-        <v>934.2465853607529</v>
+        <v>1074.877562296788</v>
       </c>
       <c r="AD3" t="n">
-        <v>754848.6396555072</v>
+        <v>868475.0668718296</v>
       </c>
       <c r="AE3" t="n">
-        <v>1032817.21034834</v>
+        <v>1188285.900909892</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.127962163393418e-07</v>
+        <v>1.551693070949113e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.37847222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>934246.5853607529</v>
+        <v>1074877.562296788</v>
       </c>
     </row>
     <row r="4">
@@ -21509,28 +21509,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>675.2405001381734</v>
+        <v>788.8668378459447</v>
       </c>
       <c r="AB4" t="n">
-        <v>923.8938417974775</v>
+        <v>1079.362409889482</v>
       </c>
       <c r="AC4" t="n">
-        <v>835.7187102294766</v>
+        <v>976.3495763842855</v>
       </c>
       <c r="AD4" t="n">
-        <v>675240.5001381733</v>
+        <v>788866.8378459447</v>
       </c>
       <c r="AE4" t="n">
-        <v>923893.8417974776</v>
+        <v>1079362.409889481</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.895448826373863e-07</v>
+        <v>1.682160717032111e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.64236111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>835718.7102294767</v>
+        <v>976349.5763842855</v>
       </c>
     </row>
     <row r="5">
@@ -21615,28 +21615,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>637.5565051189953</v>
+        <v>751.097501972195</v>
       </c>
       <c r="AB5" t="n">
-        <v>872.3329373117114</v>
+        <v>1027.684738281518</v>
       </c>
       <c r="AC5" t="n">
-        <v>789.0787061016482</v>
+        <v>929.6039492245179</v>
       </c>
       <c r="AD5" t="n">
-        <v>637556.5051189953</v>
+        <v>751097.501972195</v>
       </c>
       <c r="AE5" t="n">
-        <v>872332.9373117114</v>
+        <v>1027684.738281518</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.029495598570581e-06</v>
+        <v>1.75007428632976e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.83506944444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>789078.7061016482</v>
+        <v>929603.9492245179</v>
       </c>
     </row>
     <row r="6">
@@ -21721,28 +21721,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>619.9948886138071</v>
+        <v>723.1985496517085</v>
       </c>
       <c r="AB6" t="n">
-        <v>848.3043588454728</v>
+        <v>989.5121609017181</v>
       </c>
       <c r="AC6" t="n">
-        <v>767.3433814399057</v>
+        <v>895.0745090542976</v>
       </c>
       <c r="AD6" t="n">
-        <v>619994.8886138072</v>
+        <v>723198.5496517085</v>
       </c>
       <c r="AE6" t="n">
-        <v>848304.3588454728</v>
+        <v>989512.1609017181</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.056294105901504e-06</v>
+        <v>1.795629972684308e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.33159722222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>767343.3814399056</v>
+        <v>895074.5090542976</v>
       </c>
     </row>
     <row r="7">
@@ -21827,28 +21827,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>608.7705848210659</v>
+        <v>701.8075022442611</v>
       </c>
       <c r="AB7" t="n">
-        <v>832.9467712149092</v>
+        <v>960.2439861324405</v>
       </c>
       <c r="AC7" t="n">
-        <v>753.4515004182933</v>
+        <v>868.5996478068587</v>
       </c>
       <c r="AD7" t="n">
-        <v>608770.5848210659</v>
+        <v>701807.5022442611</v>
       </c>
       <c r="AE7" t="n">
-        <v>832946.7712149092</v>
+        <v>960243.9861324405</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.072999057793476e-06</v>
+        <v>1.824027283756941e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>20</v>
+        <v>19.03645833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>753451.5004182933</v>
+        <v>868599.6478068586</v>
       </c>
     </row>
     <row r="8">
@@ -21933,28 +21933,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>588.6836220139212</v>
+        <v>691.9725343978432</v>
       </c>
       <c r="AB8" t="n">
-        <v>805.4629025279177</v>
+        <v>946.7873492368124</v>
       </c>
       <c r="AC8" t="n">
-        <v>728.5906535849363</v>
+        <v>856.4272934500407</v>
       </c>
       <c r="AD8" t="n">
-        <v>588683.6220139212</v>
+        <v>691972.5343978432</v>
       </c>
       <c r="AE8" t="n">
-        <v>805462.9025279176</v>
+        <v>946787.3492368123</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.087539424369868e-06</v>
+        <v>1.848744943253965e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.77604166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>728590.6535849363</v>
+        <v>856427.2934500406</v>
       </c>
     </row>
     <row r="9">
@@ -22039,28 +22039,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>582.5923877071723</v>
+        <v>685.8813000910943</v>
       </c>
       <c r="AB9" t="n">
-        <v>797.1286070231321</v>
+        <v>938.4530537320265</v>
       </c>
       <c r="AC9" t="n">
-        <v>721.0517715458701</v>
+        <v>848.8884114109745</v>
       </c>
       <c r="AD9" t="n">
-        <v>582592.3877071723</v>
+        <v>685881.3000910943</v>
       </c>
       <c r="AE9" t="n">
-        <v>797128.607023132</v>
+        <v>938453.0537320266</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.095962484619623e-06</v>
+        <v>1.863063587428617e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18.63715277777778</v>
       </c>
       <c r="AH9" t="n">
-        <v>721051.7715458701</v>
+        <v>848888.4114109746</v>
       </c>
     </row>
     <row r="10">
@@ -22145,28 +22145,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>575.5758092618458</v>
+        <v>668.5273858304696</v>
       </c>
       <c r="AB10" t="n">
-        <v>787.5282148446423</v>
+        <v>914.7086626399761</v>
       </c>
       <c r="AC10" t="n">
-        <v>712.3676273226604</v>
+        <v>827.4101516792871</v>
       </c>
       <c r="AD10" t="n">
-        <v>575575.8092618459</v>
+        <v>668527.3858304695</v>
       </c>
       <c r="AE10" t="n">
-        <v>787528.2148446423</v>
+        <v>914708.662639976</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.105609006134705e-06</v>
+        <v>1.879462034667743e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>19</v>
+        <v>18.47222222222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>712367.6273226604</v>
+        <v>827410.1516792871</v>
       </c>
     </row>
     <row r="11">
@@ -22251,28 +22251,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>571.0536749115283</v>
+        <v>664.0052514801519</v>
       </c>
       <c r="AB11" t="n">
-        <v>781.3408311240504</v>
+        <v>908.5212789193841</v>
       </c>
       <c r="AC11" t="n">
-        <v>706.7707588203143</v>
+        <v>821.8132831769409</v>
       </c>
       <c r="AD11" t="n">
-        <v>571053.6749115284</v>
+        <v>664005.2514801519</v>
       </c>
       <c r="AE11" t="n">
-        <v>781340.8311240504</v>
+        <v>908521.2789193841</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.111326334739985e-06</v>
+        <v>1.889181114372884e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>19</v>
+        <v>18.37673611111111</v>
       </c>
       <c r="AH11" t="n">
-        <v>706770.7588203143</v>
+        <v>821813.2831769409</v>
       </c>
     </row>
     <row r="12">
@@ -22357,28 +22357,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>567.8246162892435</v>
+        <v>660.7761928578674</v>
       </c>
       <c r="AB12" t="n">
-        <v>776.9226906610281</v>
+        <v>904.1031384563619</v>
       </c>
       <c r="AC12" t="n">
-        <v>702.7742794821836</v>
+        <v>817.8168038388103</v>
       </c>
       <c r="AD12" t="n">
-        <v>567824.6162892436</v>
+        <v>660776.1928578673</v>
       </c>
       <c r="AE12" t="n">
-        <v>776922.6906610281</v>
+        <v>904103.1384563618</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.113490920055565e-06</v>
+        <v>1.892860765948492e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>19</v>
+        <v>18.34201388888889</v>
       </c>
       <c r="AH12" t="n">
-        <v>702774.2794821836</v>
+        <v>817816.8038388103</v>
       </c>
     </row>
     <row r="13">
@@ -22463,28 +22463,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>562.6780701217363</v>
+        <v>655.6296466903598</v>
       </c>
       <c r="AB13" t="n">
-        <v>769.880959145052</v>
+        <v>897.0614069403857</v>
       </c>
       <c r="AC13" t="n">
-        <v>696.4046009389601</v>
+        <v>811.4471252955866</v>
       </c>
       <c r="AD13" t="n">
-        <v>562678.0701217363</v>
+        <v>655629.6466903598</v>
       </c>
       <c r="AE13" t="n">
-        <v>769880.959145052</v>
+        <v>897061.4069403857</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.120549350432454e-06</v>
+        <v>1.904859629781999e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>19</v>
+        <v>18.22916666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>696404.6009389601</v>
+        <v>811447.1252955867</v>
       </c>
     </row>
     <row r="14">
@@ -22569,28 +22569,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>558.9261348535287</v>
+        <v>651.8777114221524</v>
       </c>
       <c r="AB14" t="n">
-        <v>764.7473957873884</v>
+        <v>891.9278435827222</v>
       </c>
       <c r="AC14" t="n">
-        <v>691.7609776631505</v>
+        <v>806.8035020197772</v>
       </c>
       <c r="AD14" t="n">
-        <v>558926.1348535287</v>
+        <v>651877.7114221524</v>
       </c>
       <c r="AE14" t="n">
-        <v>764747.3957873884</v>
+        <v>891927.8435827221</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.124313846633462e-06</v>
+        <v>1.911259023826536e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>19</v>
+        <v>18.16840277777778</v>
       </c>
       <c r="AH14" t="n">
-        <v>691760.9776631505</v>
+        <v>806803.5020197772</v>
       </c>
     </row>
     <row r="15">
@@ -22675,28 +22675,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>555.8352803319588</v>
+        <v>648.7868569005823</v>
       </c>
       <c r="AB15" t="n">
-        <v>760.5183522720987</v>
+        <v>887.6988000674324</v>
       </c>
       <c r="AC15" t="n">
-        <v>687.9355481254603</v>
+        <v>802.9780724820869</v>
       </c>
       <c r="AD15" t="n">
-        <v>555835.2803319588</v>
+        <v>648786.8569005823</v>
       </c>
       <c r="AE15" t="n">
-        <v>760518.3522720987</v>
+        <v>887698.8000674325</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.126596072455323e-06</v>
+        <v>1.915138656466036e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>19</v>
+        <v>18.125</v>
       </c>
       <c r="AH15" t="n">
-        <v>687935.5481254603</v>
+        <v>802978.0724820868</v>
       </c>
     </row>
     <row r="16">
@@ -22781,28 +22781,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>551.9645931747749</v>
+        <v>644.9161697433987</v>
       </c>
       <c r="AB16" t="n">
-        <v>755.2223073409745</v>
+        <v>882.402755136308</v>
       </c>
       <c r="AC16" t="n">
-        <v>683.1449502895166</v>
+        <v>798.1874746461432</v>
       </c>
       <c r="AD16" t="n">
-        <v>551964.5931747749</v>
+        <v>644916.1697433987</v>
       </c>
       <c r="AE16" t="n">
-        <v>755222.3073409745</v>
+        <v>882402.755136308</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.129748838023667e-06</v>
+        <v>1.920498148978337e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>19</v>
+        <v>18.08159722222222</v>
       </c>
       <c r="AH16" t="n">
-        <v>683144.9502895166</v>
+        <v>798187.4746461431</v>
       </c>
     </row>
     <row r="17">
@@ -22887,28 +22887,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>548.2614998153617</v>
+        <v>641.2130763839854</v>
       </c>
       <c r="AB17" t="n">
-        <v>750.1555716376761</v>
+        <v>877.3360194330098</v>
       </c>
       <c r="AC17" t="n">
-        <v>678.5617767305329</v>
+        <v>793.6043010871596</v>
       </c>
       <c r="AD17" t="n">
-        <v>548261.4998153617</v>
+        <v>641213.0763839853</v>
       </c>
       <c r="AE17" t="n">
-        <v>750155.5716376761</v>
+        <v>877336.0194330098</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.132831019288242e-06</v>
+        <v>1.925737652852301e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>19</v>
+        <v>18.02951388888889</v>
       </c>
       <c r="AH17" t="n">
-        <v>678561.7767305329</v>
+        <v>793604.3010871595</v>
       </c>
     </row>
     <row r="18">
@@ -22993,28 +22993,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>545.4773400275134</v>
+        <v>638.428916596137</v>
       </c>
       <c r="AB18" t="n">
-        <v>746.3461613874808</v>
+        <v>873.5266091828146</v>
       </c>
       <c r="AC18" t="n">
-        <v>675.1159312480754</v>
+        <v>790.1584556047021</v>
       </c>
       <c r="AD18" t="n">
-        <v>545477.3400275133</v>
+        <v>638428.916596137</v>
       </c>
       <c r="AE18" t="n">
-        <v>746346.1613874808</v>
+        <v>873526.6091828146</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.133513334224675e-06</v>
+        <v>1.926897543022874e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>19</v>
+        <v>18.02083333333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>675115.9312480754</v>
+        <v>790158.4556047021</v>
       </c>
     </row>
     <row r="19">
@@ -23099,28 +23099,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>533.0375528341592</v>
+        <v>636.2411243635095</v>
       </c>
       <c r="AB19" t="n">
-        <v>729.3254957448555</v>
+        <v>870.5331753315523</v>
       </c>
       <c r="AC19" t="n">
-        <v>659.719694045728</v>
+        <v>787.4507108788936</v>
       </c>
       <c r="AD19" t="n">
-        <v>533037.5528341592</v>
+        <v>636241.1243635095</v>
       </c>
       <c r="AE19" t="n">
-        <v>729325.4957448555</v>
+        <v>870533.1753315524</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.136219065869149e-06</v>
+        <v>1.931497107492385e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>18</v>
+        <v>17.97743055555556</v>
       </c>
       <c r="AH19" t="n">
-        <v>659719.6940457281</v>
+        <v>787450.7108788936</v>
       </c>
     </row>
     <row r="20">
@@ -23205,28 +23205,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>529.1469729270134</v>
+        <v>632.3505444563637</v>
       </c>
       <c r="AB20" t="n">
-        <v>724.0022326756269</v>
+        <v>865.2099122623238</v>
       </c>
       <c r="AC20" t="n">
-        <v>654.90447573258</v>
+        <v>782.6354925657455</v>
       </c>
       <c r="AD20" t="n">
-        <v>529146.9729270134</v>
+        <v>632350.5444563637</v>
       </c>
       <c r="AE20" t="n">
-        <v>724002.232675627</v>
+        <v>865209.9122623238</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.136077897261611e-06</v>
+        <v>1.931257130215714e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>18</v>
+        <v>17.97743055555556</v>
       </c>
       <c r="AH20" t="n">
-        <v>654904.4757325799</v>
+        <v>782635.4925657455</v>
       </c>
     </row>
     <row r="21">
@@ -23311,28 +23311,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>527.3522482439569</v>
+        <v>630.5558197733072</v>
       </c>
       <c r="AB21" t="n">
-        <v>721.5466111866041</v>
+        <v>862.7542907733009</v>
       </c>
       <c r="AC21" t="n">
-        <v>652.683215311983</v>
+        <v>780.4142321451486</v>
       </c>
       <c r="AD21" t="n">
-        <v>527352.2482439568</v>
+        <v>630555.8197733072</v>
       </c>
       <c r="AE21" t="n">
-        <v>721546.6111866041</v>
+        <v>862754.2907733009</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.138971853716136e-06</v>
+        <v>1.936176664387453e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>18</v>
+        <v>17.93402777777778</v>
       </c>
       <c r="AH21" t="n">
-        <v>652683.215311983</v>
+        <v>780414.2321451486</v>
       </c>
     </row>
     <row r="22">
@@ -23417,28 +23417,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>524.9819676427426</v>
+        <v>628.1855391720929</v>
       </c>
       <c r="AB22" t="n">
-        <v>718.3034886986226</v>
+        <v>859.5111682853195</v>
       </c>
       <c r="AC22" t="n">
-        <v>649.7496118825035</v>
+        <v>777.480628715669</v>
       </c>
       <c r="AD22" t="n">
-        <v>524981.9676427426</v>
+        <v>628185.5391720929</v>
       </c>
       <c r="AE22" t="n">
-        <v>718303.4886986226</v>
+        <v>859511.1682853195</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.138618932197291e-06</v>
+        <v>1.935576721195777e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>18</v>
+        <v>17.93402777777778</v>
       </c>
       <c r="AH22" t="n">
-        <v>649749.6118825035</v>
+        <v>777480.628715669</v>
       </c>
     </row>
     <row r="23">
@@ -23523,28 +23523,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>521.8624917491364</v>
+        <v>625.0660632784867</v>
       </c>
       <c r="AB23" t="n">
-        <v>714.0352841594273</v>
+        <v>855.2429637461241</v>
       </c>
       <c r="AC23" t="n">
-        <v>645.8887587940661</v>
+        <v>773.6197756272318</v>
       </c>
       <c r="AD23" t="n">
-        <v>521862.4917491364</v>
+        <v>625066.0632784867</v>
       </c>
       <c r="AE23" t="n">
-        <v>714035.2841594273</v>
+        <v>855242.9637461242</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.142148147385736e-06</v>
+        <v>1.94157615311253e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>18</v>
+        <v>17.88194444444444</v>
       </c>
       <c r="AH23" t="n">
-        <v>645888.7587940661</v>
+        <v>773619.7756272318</v>
       </c>
     </row>
     <row r="24">
@@ -23629,28 +23629,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>519.0496485326564</v>
+        <v>622.2532200620067</v>
       </c>
       <c r="AB24" t="n">
-        <v>710.1866279767546</v>
+        <v>851.3943075634514</v>
       </c>
       <c r="AC24" t="n">
-        <v>642.407412955845</v>
+        <v>770.1384297890106</v>
       </c>
       <c r="AD24" t="n">
-        <v>519049.6485326564</v>
+        <v>622253.2200620067</v>
       </c>
       <c r="AE24" t="n">
-        <v>710186.6279767546</v>
+        <v>851394.3075634515</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.142571653208349e-06</v>
+        <v>1.942296084942541e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>18</v>
+        <v>17.87326388888889</v>
       </c>
       <c r="AH24" t="n">
-        <v>642407.412955845</v>
+        <v>770138.4297890107</v>
       </c>
     </row>
     <row r="25">
@@ -23735,28 +23735,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>516.5778449746805</v>
+        <v>619.7814165040309</v>
       </c>
       <c r="AB25" t="n">
-        <v>706.8045973004552</v>
+        <v>848.0122768871521</v>
       </c>
       <c r="AC25" t="n">
-        <v>639.3481585405818</v>
+        <v>767.0791753737474</v>
       </c>
       <c r="AD25" t="n">
-        <v>516577.8449746805</v>
+        <v>619781.4165040308</v>
       </c>
       <c r="AE25" t="n">
-        <v>706804.5973004552</v>
+        <v>848012.2768871521</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.142242259790761e-06</v>
+        <v>1.941736137963644e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>18</v>
+        <v>17.88194444444444</v>
       </c>
       <c r="AH25" t="n">
-        <v>639348.1585405818</v>
+        <v>767079.1753737474</v>
       </c>
     </row>
     <row r="26">
@@ -23841,28 +23841,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>517.0703133568791</v>
+        <v>620.2738848862294</v>
       </c>
       <c r="AB26" t="n">
-        <v>707.478414267151</v>
+        <v>848.686093853848</v>
       </c>
       <c r="AC26" t="n">
-        <v>639.9576673616841</v>
+        <v>767.6886841948498</v>
       </c>
       <c r="AD26" t="n">
-        <v>517070.3133568791</v>
+        <v>620273.8848862294</v>
       </c>
       <c r="AE26" t="n">
-        <v>707478.414267151</v>
+        <v>848686.0938538479</v>
       </c>
       <c r="AF26" t="n">
-        <v>1.141889338271917e-06</v>
+        <v>1.941136194771969e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>18</v>
+        <v>17.88194444444444</v>
       </c>
       <c r="AH26" t="n">
-        <v>639957.6673616841</v>
+        <v>767688.6841948498</v>
       </c>
     </row>
   </sheetData>
@@ -24138,28 +24138,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>655.7931315494543</v>
+        <v>761.4828310306993</v>
       </c>
       <c r="AB2" t="n">
-        <v>897.2850941370417</v>
+        <v>1041.894403667745</v>
       </c>
       <c r="AC2" t="n">
-        <v>811.6494641001407</v>
+        <v>942.4574640896747</v>
       </c>
       <c r="AD2" t="n">
-        <v>655793.1315494543</v>
+        <v>761482.8310306993</v>
       </c>
       <c r="AE2" t="n">
-        <v>897285.0941370417</v>
+        <v>1041894.403667745</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.606521124002217e-07</v>
+        <v>1.732283087318209e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.00347222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>811649.4641001407</v>
+        <v>942457.4640896746</v>
       </c>
     </row>
     <row r="3">
@@ -24244,28 +24244,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>525.573175549722</v>
+        <v>631.092103813273</v>
       </c>
       <c r="AB3" t="n">
-        <v>719.1124054392042</v>
+        <v>863.4880582559639</v>
       </c>
       <c r="AC3" t="n">
-        <v>650.4813267446857</v>
+        <v>781.0779698891154</v>
       </c>
       <c r="AD3" t="n">
-        <v>525573.175549722</v>
+        <v>631092.1038132729</v>
       </c>
       <c r="AE3" t="n">
-        <v>719112.4054392042</v>
+        <v>863488.0582559638</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.114367650059132e-06</v>
+        <v>2.009468576953213e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.82638888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>650481.3267446856</v>
+        <v>781077.9698891153</v>
       </c>
     </row>
     <row r="4">
@@ -24350,28 +24350,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>487.8854831685442</v>
+        <v>583.8816059255125</v>
       </c>
       <c r="AB4" t="n">
-        <v>667.5464420596337</v>
+        <v>798.8925722657589</v>
       </c>
       <c r="AC4" t="n">
-        <v>603.8367465367772</v>
+        <v>722.6473864214814</v>
       </c>
       <c r="AD4" t="n">
-        <v>487885.4831685442</v>
+        <v>583881.6059255125</v>
       </c>
       <c r="AE4" t="n">
-        <v>667546.4420596337</v>
+        <v>798892.5722657589</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.170595108692769e-06</v>
+        <v>2.110859990532237e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.87152777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>603836.7465367772</v>
+        <v>722647.3864214814</v>
       </c>
     </row>
     <row r="5">
@@ -24456,28 +24456,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>472.5503058901638</v>
+        <v>558.9383717945292</v>
       </c>
       <c r="AB5" t="n">
-        <v>646.5641759670798</v>
+        <v>764.764138909921</v>
       </c>
       <c r="AC5" t="n">
-        <v>584.8569984713013</v>
+        <v>691.7761228455678</v>
       </c>
       <c r="AD5" t="n">
-        <v>472550.3058901638</v>
+        <v>558938.3717945291</v>
       </c>
       <c r="AE5" t="n">
-        <v>646564.1759670798</v>
+        <v>764764.1389099211</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.200426969950634e-06</v>
+        <v>2.164653895790098e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.40277777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>584856.9984713013</v>
+        <v>691776.1228455678</v>
       </c>
     </row>
     <row r="6">
@@ -24562,28 +24562,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>462.4381565590913</v>
+        <v>548.8262224634567</v>
       </c>
       <c r="AB6" t="n">
-        <v>632.7282871357634</v>
+        <v>750.9282500786046</v>
       </c>
       <c r="AC6" t="n">
-        <v>572.3415874512538</v>
+        <v>679.26071182552</v>
       </c>
       <c r="AD6" t="n">
-        <v>462438.1565590913</v>
+        <v>548826.2224634567</v>
       </c>
       <c r="AE6" t="n">
-        <v>632728.2871357633</v>
+        <v>750928.2500786046</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.217557381748025e-06</v>
+        <v>2.195544082000457e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.15104166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>572341.5874512538</v>
+        <v>679260.71182552</v>
       </c>
     </row>
     <row r="7">
@@ -24668,28 +24668,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>444.5069315191241</v>
+        <v>540.4177134215208</v>
       </c>
       <c r="AB7" t="n">
-        <v>608.1939939662622</v>
+        <v>739.4233570501898</v>
       </c>
       <c r="AC7" t="n">
-        <v>550.1488127877531</v>
+        <v>668.8538296405184</v>
       </c>
       <c r="AD7" t="n">
-        <v>444506.9315191241</v>
+        <v>540417.7134215208</v>
       </c>
       <c r="AE7" t="n">
-        <v>608193.9939662622</v>
+        <v>739423.3570501897</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.230182469788896e-06</v>
+        <v>2.218310103338255e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.96006944444444</v>
       </c>
       <c r="AH7" t="n">
-        <v>550148.8127877531</v>
+        <v>668853.8296405184</v>
       </c>
     </row>
     <row r="8">
@@ -24774,28 +24774,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>437.5394928350275</v>
+        <v>533.4502747374241</v>
       </c>
       <c r="AB8" t="n">
-        <v>598.6608369769806</v>
+        <v>729.890200060908</v>
       </c>
       <c r="AC8" t="n">
-        <v>541.5254869216585</v>
+        <v>660.2305037744238</v>
       </c>
       <c r="AD8" t="n">
-        <v>437539.4928350275</v>
+        <v>533450.2747374241</v>
       </c>
       <c r="AE8" t="n">
-        <v>598660.8369769806</v>
+        <v>729890.200060908</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.239473109173811e-06</v>
+        <v>2.235063324685627e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.82986111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>541525.4869216585</v>
+        <v>660230.5037744239</v>
       </c>
     </row>
     <row r="9">
@@ -24880,28 +24880,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>431.9886264532341</v>
+        <v>518.46194370362</v>
       </c>
       <c r="AB9" t="n">
-        <v>591.0658967064694</v>
+        <v>709.3825043019599</v>
       </c>
       <c r="AC9" t="n">
-        <v>534.6553970909994</v>
+        <v>641.6800337159781</v>
       </c>
       <c r="AD9" t="n">
-        <v>431988.6264532341</v>
+        <v>518461.9437036201</v>
       </c>
       <c r="AE9" t="n">
-        <v>591065.8967064694</v>
+        <v>709382.5043019599</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.242756650216699e-06</v>
+        <v>2.240984326202916e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.77777777777778</v>
       </c>
       <c r="AH9" t="n">
-        <v>534655.3970909994</v>
+        <v>641680.033715978</v>
       </c>
     </row>
     <row r="10">
@@ -24986,28 +24986,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>425.5354900225007</v>
+        <v>512.0088072728865</v>
       </c>
       <c r="AB10" t="n">
-        <v>582.2364307496529</v>
+        <v>700.5530383451435</v>
       </c>
       <c r="AC10" t="n">
-        <v>526.6686029728681</v>
+        <v>633.6932395978469</v>
       </c>
       <c r="AD10" t="n">
-        <v>425535.4900225006</v>
+        <v>512008.8072728865</v>
       </c>
       <c r="AE10" t="n">
-        <v>582236.4307496529</v>
+        <v>700553.0383451434</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.249272824689407e-06</v>
+        <v>2.252734530764361e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.69097222222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>526668.6029728681</v>
+        <v>633693.2395978469</v>
       </c>
     </row>
     <row r="11">
@@ -25092,28 +25092,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>419.8486085867088</v>
+        <v>506.3219258370947</v>
       </c>
       <c r="AB11" t="n">
-        <v>574.4553886817004</v>
+        <v>692.7719962771909</v>
       </c>
       <c r="AC11" t="n">
-        <v>519.6301726391198</v>
+        <v>626.6548092640985</v>
       </c>
       <c r="AD11" t="n">
-        <v>419848.6085867088</v>
+        <v>506321.9258370947</v>
       </c>
       <c r="AE11" t="n">
-        <v>574455.3886817003</v>
+        <v>692771.9962771909</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.254338132189675e-06</v>
+        <v>2.261868478841421e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.61284722222222</v>
       </c>
       <c r="AH11" t="n">
-        <v>519630.1726391198</v>
+        <v>626654.8092640985</v>
       </c>
     </row>
     <row r="12">
@@ -25198,28 +25198,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>420.8085209413188</v>
+        <v>507.2818381917048</v>
       </c>
       <c r="AB12" t="n">
-        <v>575.7687831136222</v>
+        <v>694.0853907091126</v>
       </c>
       <c r="AC12" t="n">
-        <v>520.8182185498198</v>
+        <v>627.8428551747985</v>
       </c>
       <c r="AD12" t="n">
-        <v>420808.5209413188</v>
+        <v>507281.8381917048</v>
       </c>
       <c r="AE12" t="n">
-        <v>575768.7831136222</v>
+        <v>694085.3907091126</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.253829056058995e-06</v>
+        <v>2.260950494110058e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>17.62152777777778</v>
       </c>
       <c r="AH12" t="n">
-        <v>520818.2185498198</v>
+        <v>627842.8551747985</v>
       </c>
     </row>
   </sheetData>
@@ -25495,28 +25495,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>528.2657569806275</v>
+        <v>629.8640902742741</v>
       </c>
       <c r="AB2" t="n">
-        <v>722.796514141278</v>
+        <v>861.8078359557721</v>
       </c>
       <c r="AC2" t="n">
-        <v>653.8138292829127</v>
+        <v>779.5581056470469</v>
       </c>
       <c r="AD2" t="n">
-        <v>528265.7569806275</v>
+        <v>629864.0902742741</v>
       </c>
       <c r="AE2" t="n">
-        <v>722796.514141278</v>
+        <v>861807.8359557721</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.083300017267459e-06</v>
+        <v>2.021091563237602e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.25</v>
       </c>
       <c r="AH2" t="n">
-        <v>653813.8292829127</v>
+        <v>779558.1056470469</v>
       </c>
     </row>
     <row r="3">
@@ -25601,28 +25601,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>441.5504127240195</v>
+        <v>533.9822768642103</v>
       </c>
       <c r="AB3" t="n">
-        <v>604.1487545183966</v>
+        <v>730.6181088410541</v>
       </c>
       <c r="AC3" t="n">
-        <v>546.4896453152625</v>
+        <v>660.8889419622195</v>
       </c>
       <c r="AD3" t="n">
-        <v>441550.4127240195</v>
+        <v>533982.2768642104</v>
       </c>
       <c r="AE3" t="n">
-        <v>604148.7545183966</v>
+        <v>730618.1088410541</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.213591920364903e-06</v>
+        <v>2.264174607556802e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.96701388888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>546489.6453152625</v>
+        <v>660888.9419622195</v>
       </c>
     </row>
     <row r="4">
@@ -25707,28 +25707,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>421.3437217562785</v>
+        <v>504.5239549055442</v>
       </c>
       <c r="AB4" t="n">
-        <v>576.5010684800435</v>
+        <v>690.3119331277642</v>
       </c>
       <c r="AC4" t="n">
-        <v>521.4806156286388</v>
+        <v>624.4295310889329</v>
       </c>
       <c r="AD4" t="n">
-        <v>421343.7217562785</v>
+        <v>504523.9549055442</v>
       </c>
       <c r="AE4" t="n">
-        <v>576501.0684800436</v>
+        <v>690311.9331277641</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.258666449315993e-06</v>
+        <v>2.348269270833693e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.28993055555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>521480.6156286388</v>
+        <v>624429.5310889329</v>
       </c>
     </row>
     <row r="5">
@@ -25813,28 +25813,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>399.3679988275802</v>
+        <v>491.7145221131993</v>
       </c>
       <c r="AB5" t="n">
-        <v>546.4329148685267</v>
+        <v>672.7855020689866</v>
       </c>
       <c r="AC5" t="n">
-        <v>494.2821243968864</v>
+        <v>608.5757980119046</v>
       </c>
       <c r="AD5" t="n">
-        <v>399367.9988275801</v>
+        <v>491714.5221131993</v>
       </c>
       <c r="AE5" t="n">
-        <v>546432.9148685267</v>
+        <v>672785.5020689867</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.28372258452704e-06</v>
+        <v>2.395016010125847e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.92534722222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>494282.1243968864</v>
+        <v>608575.7980119046</v>
       </c>
     </row>
     <row r="6">
@@ -25919,28 +25919,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>389.4121445143456</v>
+        <v>472.6776290096317</v>
       </c>
       <c r="AB6" t="n">
-        <v>532.8108757758655</v>
+        <v>646.7383850762354</v>
       </c>
       <c r="AC6" t="n">
-        <v>481.960153596577</v>
+        <v>585.0145813075832</v>
       </c>
       <c r="AD6" t="n">
-        <v>389412.1445143456</v>
+        <v>472677.6290096317</v>
       </c>
       <c r="AE6" t="n">
-        <v>532810.8757758655</v>
+        <v>646738.3850762354</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.298013861647415e-06</v>
+        <v>2.421678965129521e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.734375</v>
       </c>
       <c r="AH6" t="n">
-        <v>481960.153596577</v>
+        <v>585014.5813075831</v>
       </c>
     </row>
     <row r="7">
@@ -26025,28 +26025,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>381.4545652303527</v>
+        <v>464.7200497256389</v>
       </c>
       <c r="AB7" t="n">
-        <v>521.9229647358852</v>
+        <v>635.8504740362552</v>
       </c>
       <c r="AC7" t="n">
-        <v>472.1113695049734</v>
+        <v>575.1657972159795</v>
       </c>
       <c r="AD7" t="n">
-        <v>381454.5652303527</v>
+        <v>464720.0497256389</v>
       </c>
       <c r="AE7" t="n">
-        <v>521922.9647358853</v>
+        <v>635850.4740362552</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.307320426154375e-06</v>
+        <v>2.439042039723749e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.60416666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>472111.3695049734</v>
+        <v>575165.7972159795</v>
       </c>
     </row>
     <row r="8">
@@ -26131,28 +26131,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>380.7252754753895</v>
+        <v>463.9907599706758</v>
       </c>
       <c r="AB8" t="n">
-        <v>520.9251183191516</v>
+        <v>634.8526276195215</v>
       </c>
       <c r="AC8" t="n">
-        <v>471.2087561497664</v>
+        <v>574.2631838607725</v>
       </c>
       <c r="AD8" t="n">
-        <v>380725.2754753896</v>
+        <v>463990.7599706758</v>
       </c>
       <c r="AE8" t="n">
-        <v>520925.1183191516</v>
+        <v>634852.6276195215</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.308487061021344e-06</v>
+        <v>2.44121860747915e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.58680555555556</v>
       </c>
       <c r="AH8" t="n">
-        <v>471208.7561497664</v>
+        <v>574263.1838607725</v>
       </c>
     </row>
   </sheetData>
@@ -49217,28 +49217,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>448.3490233462124</v>
+        <v>537.9319984651189</v>
       </c>
       <c r="AB2" t="n">
-        <v>613.4509135052133</v>
+        <v>736.0222921848364</v>
       </c>
       <c r="AC2" t="n">
-        <v>554.9040193040396</v>
+        <v>665.7773576324898</v>
       </c>
       <c r="AD2" t="n">
-        <v>448349.0233462125</v>
+        <v>537931.9984651189</v>
       </c>
       <c r="AE2" t="n">
-        <v>613450.9135052133</v>
+        <v>736022.2921848363</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.180224939756748e-06</v>
+        <v>2.269616326150957e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.17361111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>554904.0193040395</v>
+        <v>665777.3576324899</v>
       </c>
     </row>
     <row r="3">
@@ -49323,28 +49323,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>386.8783960009676</v>
+        <v>467.4945484733813</v>
       </c>
       <c r="AB3" t="n">
-        <v>529.3440892787667</v>
+        <v>639.6466656251624</v>
       </c>
       <c r="AC3" t="n">
-        <v>478.8242323370957</v>
+        <v>578.5996856076298</v>
       </c>
       <c r="AD3" t="n">
-        <v>386878.3960009676</v>
+        <v>467494.5484733813</v>
       </c>
       <c r="AE3" t="n">
-        <v>529344.0892787667</v>
+        <v>639646.6656251624</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.295010934943409e-06</v>
+        <v>2.490354051573727e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.38541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>478824.2323370957</v>
+        <v>578599.6856076298</v>
       </c>
     </row>
     <row r="4">
@@ -49429,28 +49429,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>361.1617246333487</v>
+        <v>450.6592693891325</v>
       </c>
       <c r="AB4" t="n">
-        <v>494.1574049741215</v>
+        <v>616.6118940619987</v>
       </c>
       <c r="AC4" t="n">
-        <v>446.9957157976644</v>
+        <v>557.7633203129494</v>
       </c>
       <c r="AD4" t="n">
-        <v>361161.7246333488</v>
+        <v>450659.2693891325</v>
       </c>
       <c r="AE4" t="n">
-        <v>494157.4049741215</v>
+        <v>616611.8940619987</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.331764395767811e-06</v>
+        <v>2.561032319689978e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.88194444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>446995.7157976644</v>
+        <v>557763.3203129494</v>
       </c>
     </row>
     <row r="5">
@@ -49535,28 +49535,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>349.9194207648163</v>
+        <v>430.6208245832506</v>
       </c>
       <c r="AB5" t="n">
-        <v>478.775188845753</v>
+        <v>589.1944098447981</v>
       </c>
       <c r="AC5" t="n">
-        <v>433.0815567875114</v>
+        <v>532.9625223087578</v>
       </c>
       <c r="AD5" t="n">
-        <v>349919.4207648163</v>
+        <v>430620.8245832506</v>
       </c>
       <c r="AE5" t="n">
-        <v>478775.188845753</v>
+        <v>589194.409844798</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.349784562754104e-06</v>
+        <v>2.595685769057423e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.63888888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>433081.5567875114</v>
+        <v>532962.5223087578</v>
       </c>
     </row>
     <row r="6">
@@ -49641,28 +49641,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>349.8804568308724</v>
+        <v>430.5818606493067</v>
       </c>
       <c r="AB6" t="n">
-        <v>478.7218766723635</v>
+        <v>589.1410976714087</v>
       </c>
       <c r="AC6" t="n">
-        <v>433.0333326531261</v>
+        <v>532.9142981743724</v>
       </c>
       <c r="AD6" t="n">
-        <v>349880.4568308724</v>
+        <v>430581.8606493067</v>
       </c>
       <c r="AE6" t="n">
-        <v>478721.8766723635</v>
+        <v>589141.0976714087</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.351430240104451e-06</v>
+        <v>2.598850467629793e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.62152777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>433033.3326531261</v>
+        <v>532914.2981743724</v>
       </c>
     </row>
   </sheetData>
@@ -49938,28 +49938,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>307.6267266845345</v>
+        <v>383.1600760894377</v>
       </c>
       <c r="AB2" t="n">
-        <v>420.9084589831317</v>
+        <v>524.2565199351142</v>
       </c>
       <c r="AC2" t="n">
-        <v>380.7375464065133</v>
+        <v>474.2222134711532</v>
       </c>
       <c r="AD2" t="n">
-        <v>307626.7266845345</v>
+        <v>383160.0760894376</v>
       </c>
       <c r="AE2" t="n">
-        <v>420908.4589831317</v>
+        <v>524256.5199351142</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.385496555387342e-06</v>
+        <v>2.857724254892349e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.44618055555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>380737.5464065133</v>
+        <v>474222.2134711532</v>
       </c>
     </row>
     <row r="3">
@@ -50044,28 +50044,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>288.1914176835626</v>
+        <v>372.0414034754456</v>
       </c>
       <c r="AB3" t="n">
-        <v>394.3162117826828</v>
+        <v>509.0434615434338</v>
       </c>
       <c r="AC3" t="n">
-        <v>356.6832259564219</v>
+        <v>460.4610680207132</v>
       </c>
       <c r="AD3" t="n">
-        <v>288191.4176835626</v>
+        <v>372041.4034754456</v>
       </c>
       <c r="AE3" t="n">
-        <v>394316.2117826828</v>
+        <v>509043.4615434338</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.424384897850088e-06</v>
+        <v>2.93793532366493e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.94270833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>356683.2259564219</v>
+        <v>460461.0680207132</v>
       </c>
     </row>
   </sheetData>
@@ -50341,28 +50341,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>781.3323143105948</v>
+        <v>910.0799110684592</v>
       </c>
       <c r="AB2" t="n">
-        <v>1069.053342388697</v>
+        <v>1245.211484215905</v>
       </c>
       <c r="AC2" t="n">
-        <v>967.0243918169085</v>
+        <v>1126.370247827633</v>
       </c>
       <c r="AD2" t="n">
-        <v>781332.3143105948</v>
+        <v>910079.9110684592</v>
       </c>
       <c r="AE2" t="n">
-        <v>1069053.342388697</v>
+        <v>1245211.484215905</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.581007374801945e-07</v>
+        <v>1.507649145587258e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.90451388888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>967024.3918169085</v>
+        <v>1126370.247827633</v>
       </c>
     </row>
     <row r="3">
@@ -50447,28 +50447,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>607.6189797181287</v>
+        <v>716.5461245356183</v>
       </c>
       <c r="AB3" t="n">
-        <v>831.3710943078389</v>
+        <v>980.4100193736003</v>
       </c>
       <c r="AC3" t="n">
-        <v>752.0262039037574</v>
+        <v>886.8410631386878</v>
       </c>
       <c r="AD3" t="n">
-        <v>607618.9797181287</v>
+        <v>716546.1245356183</v>
       </c>
       <c r="AE3" t="n">
-        <v>831371.0943078389</v>
+        <v>980410.0193736004</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.031468845164473e-06</v>
+        <v>1.812250071802305e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.72048611111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>752026.2039037574</v>
+        <v>886841.0631386878</v>
       </c>
     </row>
     <row r="4">
@@ -50553,28 +50553,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>559.7693334232157</v>
+        <v>658.7010009244974</v>
       </c>
       <c r="AB4" t="n">
-        <v>765.9010972697297</v>
+        <v>901.2637693021184</v>
       </c>
       <c r="AC4" t="n">
-        <v>692.8045714952473</v>
+        <v>815.2484200915683</v>
       </c>
       <c r="AD4" t="n">
-        <v>559769.3334232157</v>
+        <v>658701.0009244974</v>
       </c>
       <c r="AE4" t="n">
-        <v>765901.0972697297</v>
+        <v>901263.7693021183</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.09700504264467e-06</v>
+        <v>1.927394585517791e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.47916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>692804.5714952473</v>
+        <v>815248.4200915683</v>
       </c>
     </row>
     <row r="5">
@@ -50659,28 +50659,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>530.8541483726455</v>
+        <v>629.8710672199477</v>
       </c>
       <c r="AB5" t="n">
-        <v>726.3380654356059</v>
+        <v>861.8173821206439</v>
       </c>
       <c r="AC5" t="n">
-        <v>657.0173798923083</v>
+        <v>779.5667407393415</v>
       </c>
       <c r="AD5" t="n">
-        <v>530854.1483726455</v>
+        <v>629871.0672199477</v>
       </c>
       <c r="AE5" t="n">
-        <v>726338.0654356059</v>
+        <v>861817.3821206439</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.130881003475907e-06</v>
+        <v>1.986913312366969e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.89756944444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>657017.3798923084</v>
+        <v>779566.7407393415</v>
       </c>
     </row>
     <row r="6">
@@ -50765,28 +50765,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>519.0329452829621</v>
+        <v>618.0498641302644</v>
       </c>
       <c r="AB6" t="n">
-        <v>710.1637738536275</v>
+        <v>845.6430905386654</v>
       </c>
       <c r="AC6" t="n">
-        <v>642.3867399981532</v>
+        <v>764.9361008451863</v>
       </c>
       <c r="AD6" t="n">
-        <v>519032.9452829622</v>
+        <v>618049.8641302644</v>
       </c>
       <c r="AE6" t="n">
-        <v>710163.7738536275</v>
+        <v>845643.0905386654</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.151241046795262e-06</v>
+        <v>2.022685105320653e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.55902777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>642386.7399981532</v>
+        <v>764936.1008451863</v>
       </c>
     </row>
     <row r="7">
@@ -50871,28 +50871,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>510.4152434474868</v>
+        <v>599.5220258331527</v>
       </c>
       <c r="AB7" t="n">
-        <v>698.3726540161574</v>
+        <v>820.29248479002</v>
       </c>
       <c r="AC7" t="n">
-        <v>631.7209480890305</v>
+        <v>742.004921329393</v>
       </c>
       <c r="AD7" t="n">
-        <v>510415.2434474868</v>
+        <v>599522.0258331527</v>
       </c>
       <c r="AE7" t="n">
-        <v>698372.6540161574</v>
+        <v>820292.48479002</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.165347824089083e-06</v>
+        <v>2.04747015654491e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.34201388888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>631720.9480890305</v>
+        <v>742004.9213293931</v>
       </c>
     </row>
     <row r="8">
@@ -50977,28 +50977,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>503.2159037023291</v>
+        <v>592.3226860879951</v>
       </c>
       <c r="AB8" t="n">
-        <v>688.522199764379</v>
+        <v>810.4420305382419</v>
       </c>
       <c r="AC8" t="n">
-        <v>622.8106073658427</v>
+        <v>733.0945806062051</v>
       </c>
       <c r="AD8" t="n">
-        <v>503215.9037023291</v>
+        <v>592322.6860879951</v>
       </c>
       <c r="AE8" t="n">
-        <v>688522.1997643791</v>
+        <v>810442.0305382418</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.175269344594162e-06</v>
+        <v>2.064901876690418e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.18576388888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>622810.6073658427</v>
+        <v>733094.5806062052</v>
       </c>
     </row>
     <row r="9">
@@ -51083,28 +51083,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>497.3301214951032</v>
+        <v>586.4369038807691</v>
       </c>
       <c r="AB9" t="n">
-        <v>680.4690128860676</v>
+        <v>802.3888436599304</v>
       </c>
       <c r="AC9" t="n">
-        <v>615.5260053404785</v>
+        <v>725.8099785808411</v>
       </c>
       <c r="AD9" t="n">
-        <v>497330.1214951032</v>
+        <v>586436.9038807692</v>
       </c>
       <c r="AE9" t="n">
-        <v>680469.0128860676</v>
+        <v>802388.8436599304</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.18194113629857e-06</v>
+        <v>2.07662395152772e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18.08159722222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>615526.0053404785</v>
+        <v>725809.9785808411</v>
       </c>
     </row>
     <row r="10">
@@ -51189,28 +51189,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>481.0393928249369</v>
+        <v>579.9709708176674</v>
       </c>
       <c r="AB10" t="n">
-        <v>658.1793192233201</v>
+        <v>793.5418687861604</v>
       </c>
       <c r="AC10" t="n">
-        <v>595.3636087571221</v>
+        <v>717.8073465722164</v>
       </c>
       <c r="AD10" t="n">
-        <v>481039.3928249369</v>
+        <v>579970.9708176674</v>
       </c>
       <c r="AE10" t="n">
-        <v>658179.3192233201</v>
+        <v>793541.8687861604</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.190410126506379e-06</v>
+        <v>2.091503633240014e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.95138888888889</v>
       </c>
       <c r="AH10" t="n">
-        <v>595363.6087571221</v>
+        <v>717807.3465722164</v>
       </c>
     </row>
     <row r="11">
@@ -51295,28 +51295,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>476.8792343397784</v>
+        <v>575.810812332509</v>
       </c>
       <c r="AB11" t="n">
-        <v>652.4872068506871</v>
+        <v>787.8497564135273</v>
       </c>
       <c r="AC11" t="n">
-        <v>590.2147436004032</v>
+        <v>712.6584814154976</v>
       </c>
       <c r="AD11" t="n">
-        <v>476879.2343397784</v>
+        <v>575810.8123325091</v>
       </c>
       <c r="AE11" t="n">
-        <v>652487.2068506872</v>
+        <v>787849.7564135273</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.193265948785756e-06</v>
+        <v>2.096521200329043e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.90798611111111</v>
       </c>
       <c r="AH11" t="n">
-        <v>590214.7436004032</v>
+        <v>712658.4814154976</v>
       </c>
     </row>
     <row r="12">
@@ -51401,28 +51401,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>471.865616043836</v>
+        <v>570.7971940365667</v>
       </c>
       <c r="AB12" t="n">
-        <v>645.62735311295</v>
+        <v>780.9899026757903</v>
       </c>
       <c r="AC12" t="n">
-        <v>584.0095846755305</v>
+        <v>706.4533224906248</v>
       </c>
       <c r="AD12" t="n">
-        <v>471865.616043836</v>
+        <v>570797.1940365667</v>
       </c>
       <c r="AE12" t="n">
-        <v>645627.35311295</v>
+        <v>780989.9026757902</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.198903735871769e-06</v>
+        <v>2.106426569841007e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>17.82118055555556</v>
       </c>
       <c r="AH12" t="n">
-        <v>584009.5846755306</v>
+        <v>706453.3224906249</v>
       </c>
     </row>
     <row r="13">
@@ -51507,28 +51507,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>467.1563304996152</v>
+        <v>556.3483642313017</v>
       </c>
       <c r="AB13" t="n">
-        <v>639.1839008723317</v>
+        <v>761.2203762988438</v>
       </c>
       <c r="AC13" t="n">
-        <v>578.1810864733147</v>
+        <v>688.5705719643896</v>
       </c>
       <c r="AD13" t="n">
-        <v>467156.3304996152</v>
+        <v>556348.3642313017</v>
       </c>
       <c r="AE13" t="n">
-        <v>639183.9008723317</v>
+        <v>761220.3762988438</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.201611843205661e-06</v>
+        <v>2.111184607597845e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>17.78645833333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>578181.0864733148</v>
+        <v>688570.5719643896</v>
       </c>
     </row>
     <row r="14">
@@ -51613,28 +51613,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>462.8142606683931</v>
+        <v>552.0062944000797</v>
       </c>
       <c r="AB14" t="n">
-        <v>633.2428893706524</v>
+        <v>755.2793647971644</v>
       </c>
       <c r="AC14" t="n">
-        <v>572.8070767710936</v>
+        <v>683.1965622621685</v>
       </c>
       <c r="AD14" t="n">
-        <v>462814.2606683931</v>
+        <v>552006.2944000796</v>
       </c>
       <c r="AE14" t="n">
-        <v>633242.8893706524</v>
+        <v>755279.3647971643</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.204886191163913e-06</v>
+        <v>2.116937507794749e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>18</v>
+        <v>17.734375</v>
       </c>
       <c r="AH14" t="n">
-        <v>572807.0767710936</v>
+        <v>683196.5622621685</v>
       </c>
     </row>
     <row r="15">
@@ -51719,28 +51719,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>458.1260352072554</v>
+        <v>547.3180689389419</v>
       </c>
       <c r="AB15" t="n">
-        <v>626.8282524648137</v>
+        <v>748.8647278913257</v>
       </c>
       <c r="AC15" t="n">
-        <v>567.004643808549</v>
+        <v>677.3941292996236</v>
       </c>
       <c r="AD15" t="n">
-        <v>458126.0352072554</v>
+        <v>547318.0689389419</v>
       </c>
       <c r="AE15" t="n">
-        <v>626828.2524648136</v>
+        <v>748864.7278913257</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.207692775128129e-06</v>
+        <v>2.121868565106382e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>18</v>
+        <v>17.69965277777778</v>
       </c>
       <c r="AH15" t="n">
-        <v>567004.6438085489</v>
+        <v>677394.1292996237</v>
       </c>
     </row>
     <row r="16">
@@ -51825,28 +51825,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>457.7381685005603</v>
+        <v>546.9302022322469</v>
       </c>
       <c r="AB16" t="n">
-        <v>626.2975561252422</v>
+        <v>748.3340315517542</v>
       </c>
       <c r="AC16" t="n">
-        <v>566.5245963827891</v>
+        <v>676.9140818738638</v>
       </c>
       <c r="AD16" t="n">
-        <v>457738.1685005603</v>
+        <v>546930.2022322469</v>
       </c>
       <c r="AE16" t="n">
-        <v>626297.5561252421</v>
+        <v>748334.0315517541</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.207028057873446e-06</v>
+        <v>2.120700683111521e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>18</v>
+        <v>17.70833333333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>566524.5963827891</v>
+        <v>676914.0818738638</v>
       </c>
     </row>
     <row r="17">
@@ -51931,28 +51931,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>458.992434059152</v>
+        <v>548.1844677908385</v>
       </c>
       <c r="AB17" t="n">
-        <v>628.0136975967985</v>
+        <v>750.0501730233104</v>
       </c>
       <c r="AC17" t="n">
-        <v>568.0769517209197</v>
+        <v>678.4664372119945</v>
       </c>
       <c r="AD17" t="n">
-        <v>458992.434059152</v>
+        <v>548184.4677908386</v>
       </c>
       <c r="AE17" t="n">
-        <v>628013.6975967984</v>
+        <v>750050.1730233105</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.207028057873446e-06</v>
+        <v>2.120700683111521e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>18</v>
+        <v>17.70833333333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>568076.9517209197</v>
+        <v>678466.4372119945</v>
       </c>
     </row>
   </sheetData>
@@ -52228,28 +52228,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>988.3722904870266</v>
+        <v>1142.070210364117</v>
       </c>
       <c r="AB2" t="n">
-        <v>1352.334571752397</v>
+        <v>1562.6308464019</v>
       </c>
       <c r="AC2" t="n">
-        <v>1223.26965823784</v>
+        <v>1413.49555158747</v>
       </c>
       <c r="AD2" t="n">
-        <v>988372.2904870266</v>
+        <v>1142070.210364117</v>
       </c>
       <c r="AE2" t="n">
-        <v>1352334.571752397</v>
+        <v>1562630.846401901</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.41202797995181e-07</v>
+        <v>1.267374183156383e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.78645833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1223269.65823784</v>
+        <v>1413495.55158747</v>
       </c>
     </row>
     <row r="3">
@@ -52334,28 +52334,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>729.8791843112738</v>
+        <v>842.6309074618243</v>
       </c>
       <c r="AB3" t="n">
-        <v>998.6528999717353</v>
+        <v>1152.924781841279</v>
       </c>
       <c r="AC3" t="n">
-        <v>903.3428688165803</v>
+        <v>1042.891258802441</v>
       </c>
       <c r="AD3" t="n">
-        <v>729879.1843112737</v>
+        <v>842630.9074618244</v>
       </c>
       <c r="AE3" t="n">
-        <v>998652.8999717353</v>
+        <v>1152924.781841279</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.335553981342498e-07</v>
+        <v>1.596275693159647e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.05729166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>903342.8688165804</v>
+        <v>1042891.258802441</v>
       </c>
     </row>
     <row r="4">
@@ -52440,28 +52440,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>653.4234012431366</v>
+        <v>755.9172176212716</v>
       </c>
       <c r="AB4" t="n">
-        <v>894.0427245868151</v>
+        <v>1034.279285863432</v>
       </c>
       <c r="AC4" t="n">
-        <v>808.7165417490937</v>
+        <v>935.56912244072</v>
       </c>
       <c r="AD4" t="n">
-        <v>653423.4012431366</v>
+        <v>755917.2176212716</v>
       </c>
       <c r="AE4" t="n">
-        <v>894042.7245868151</v>
+        <v>1034279.285863432</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.009898598337447e-06</v>
+        <v>1.726814057638002e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.390625</v>
       </c>
       <c r="AH4" t="n">
-        <v>808716.5417490937</v>
+        <v>935569.12244072</v>
       </c>
     </row>
     <row r="5">
@@ -52546,28 +52546,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>617.3480029128946</v>
+        <v>719.9270706370503</v>
       </c>
       <c r="AB5" t="n">
-        <v>844.6827730571285</v>
+        <v>985.0359789863946</v>
       </c>
       <c r="AC5" t="n">
-        <v>764.0674347162731</v>
+        <v>891.0255276586118</v>
       </c>
       <c r="AD5" t="n">
-        <v>617348.0029128946</v>
+        <v>719927.0706370503</v>
       </c>
       <c r="AE5" t="n">
-        <v>844682.7730571285</v>
+        <v>985035.9789863946</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.049564798070121e-06</v>
+        <v>1.794638838684555e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.61805555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>764067.4347162731</v>
+        <v>891025.5276586119</v>
       </c>
     </row>
     <row r="6">
@@ -52652,28 +52652,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>602.021098949709</v>
+        <v>704.4295744732723</v>
       </c>
       <c r="AB6" t="n">
-        <v>823.7118268794173</v>
+        <v>963.8316210338364</v>
       </c>
       <c r="AC6" t="n">
-        <v>745.0979262088549</v>
+        <v>871.8448838685425</v>
       </c>
       <c r="AD6" t="n">
-        <v>602021.098949709</v>
+        <v>704429.5744732723</v>
       </c>
       <c r="AE6" t="n">
-        <v>823711.8268794173</v>
+        <v>963831.6210338364</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.073597011185671e-06</v>
+        <v>1.835731244904746e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.18402777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>745097.9262088549</v>
+        <v>871844.8838685425</v>
       </c>
     </row>
     <row r="7">
@@ -52758,28 +52758,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>580.6725311424424</v>
+        <v>683.1662580120263</v>
       </c>
       <c r="AB7" t="n">
-        <v>794.5017745731745</v>
+        <v>934.7382133802429</v>
       </c>
       <c r="AC7" t="n">
-        <v>718.6756402981541</v>
+        <v>845.5281102085538</v>
       </c>
       <c r="AD7" t="n">
-        <v>580672.5311424424</v>
+        <v>683166.2580120263</v>
       </c>
       <c r="AE7" t="n">
-        <v>794501.7745731745</v>
+        <v>934738.2133802429</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.090227397556846e-06</v>
+        <v>1.86416735226936e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.88888888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>718675.6402981541</v>
+        <v>845528.1102085538</v>
       </c>
     </row>
     <row r="8">
@@ -52864,28 +52864,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>571.833690743027</v>
+        <v>674.327417612611</v>
       </c>
       <c r="AB8" t="n">
-        <v>782.4080831965769</v>
+        <v>922.6445220036452</v>
       </c>
       <c r="AC8" t="n">
-        <v>707.7361538529364</v>
+        <v>834.5886237633363</v>
       </c>
       <c r="AD8" t="n">
-        <v>571833.690743027</v>
+        <v>674327.4176126111</v>
       </c>
       <c r="AE8" t="n">
-        <v>782408.0831965768</v>
+        <v>922644.5220036452</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.104224441720888e-06</v>
+        <v>1.888100737925739e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.64583333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>707736.1538529363</v>
+        <v>834588.6237633362</v>
       </c>
     </row>
     <row r="9">
@@ -52970,28 +52970,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>565.059868644151</v>
+        <v>667.3830033131428</v>
       </c>
       <c r="AB9" t="n">
-        <v>773.1398409609548</v>
+        <v>913.1428679931761</v>
       </c>
       <c r="AC9" t="n">
-        <v>699.3524596482224</v>
+        <v>825.9937942759711</v>
       </c>
       <c r="AD9" t="n">
-        <v>565059.868644151</v>
+        <v>667383.0033131428</v>
       </c>
       <c r="AE9" t="n">
-        <v>773139.8409609548</v>
+        <v>913142.8679931761</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.113476725151356e-06</v>
+        <v>1.903921111495211e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18.49826388888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>699352.4596482224</v>
+        <v>825993.7942759711</v>
       </c>
     </row>
     <row r="10">
@@ -53076,28 +53076,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>560.3746711834062</v>
+        <v>652.6105807891257</v>
       </c>
       <c r="AB10" t="n">
-        <v>766.7293470988398</v>
+        <v>892.9305877825298</v>
       </c>
       <c r="AC10" t="n">
-        <v>693.5537743231231</v>
+        <v>807.7105457205155</v>
       </c>
       <c r="AD10" t="n">
-        <v>560374.6711834063</v>
+        <v>652610.5807891258</v>
       </c>
       <c r="AE10" t="n">
-        <v>766729.3470988397</v>
+        <v>892930.5877825298</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.11855361913628e-06</v>
+        <v>1.912602034428202e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>19</v>
+        <v>18.41145833333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>693553.774323123</v>
+        <v>807710.5457205155</v>
       </c>
     </row>
     <row r="11">
@@ -53182,28 +53182,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>555.1776056420981</v>
+        <v>647.4135152478176</v>
       </c>
       <c r="AB11" t="n">
-        <v>759.6184927468719</v>
+        <v>885.819733430562</v>
       </c>
       <c r="AC11" t="n">
-        <v>687.1215699303604</v>
+        <v>801.2783413277527</v>
       </c>
       <c r="AD11" t="n">
-        <v>555177.6056420981</v>
+        <v>647413.5152478176</v>
       </c>
       <c r="AE11" t="n">
-        <v>759618.4927468719</v>
+        <v>885819.733430562</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.124413398642243e-06</v>
+        <v>1.922621604355534e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>19</v>
+        <v>18.31597222222222</v>
       </c>
       <c r="AH11" t="n">
-        <v>687121.5699303603</v>
+        <v>801278.3413277527</v>
       </c>
     </row>
     <row r="12">
@@ -53288,28 +53288,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>551.1397245906643</v>
+        <v>643.3756341963837</v>
       </c>
       <c r="AB12" t="n">
-        <v>754.0936857535604</v>
+        <v>880.2949264372505</v>
       </c>
       <c r="AC12" t="n">
-        <v>682.1240427623751</v>
+        <v>796.2808141597675</v>
       </c>
       <c r="AD12" t="n">
-        <v>551139.7245906643</v>
+        <v>643375.6341963836</v>
       </c>
       <c r="AE12" t="n">
-        <v>754093.6857535604</v>
+        <v>880294.9264372506</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.129798702074849e-06</v>
+        <v>1.931829873074175e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>19</v>
+        <v>18.22916666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>682124.0427623751</v>
+        <v>796280.8141597675</v>
       </c>
     </row>
     <row r="13">
@@ -53394,28 +53394,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>546.8339755711893</v>
+        <v>639.0698851769089</v>
       </c>
       <c r="AB13" t="n">
-        <v>748.2023699888747</v>
+        <v>874.4036106725647</v>
       </c>
       <c r="AC13" t="n">
-        <v>676.7949859057572</v>
+        <v>790.9517573031496</v>
       </c>
       <c r="AD13" t="n">
-        <v>546833.9755711893</v>
+        <v>639069.8851769089</v>
       </c>
       <c r="AE13" t="n">
-        <v>748202.3699888746</v>
+        <v>874403.6106725647</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.133404720232365e-06</v>
+        <v>1.937995762260225e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>19</v>
+        <v>18.16840277777778</v>
       </c>
       <c r="AH13" t="n">
-        <v>676794.9859057573</v>
+        <v>790951.7573031497</v>
       </c>
     </row>
     <row r="14">
@@ -53500,28 +53500,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>541.5680292603633</v>
+        <v>633.8039388660828</v>
       </c>
       <c r="AB14" t="n">
-        <v>740.9972699292473</v>
+        <v>867.1985106129374</v>
       </c>
       <c r="AC14" t="n">
-        <v>670.2775304833993</v>
+        <v>784.4343018807918</v>
       </c>
       <c r="AD14" t="n">
-        <v>541568.0292603633</v>
+        <v>633803.9388660828</v>
       </c>
       <c r="AE14" t="n">
-        <v>740997.2699292473</v>
+        <v>867198.5106129374</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.139881318633693e-06</v>
+        <v>1.949070023758855e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>19</v>
+        <v>18.06423611111111</v>
       </c>
       <c r="AH14" t="n">
-        <v>670277.5304833994</v>
+        <v>784434.3018807919</v>
       </c>
     </row>
     <row r="15">
@@ -53606,28 +53606,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>537.4379126187088</v>
+        <v>629.6738222244284</v>
       </c>
       <c r="AB15" t="n">
-        <v>735.3462621322491</v>
+        <v>861.547502815939</v>
       </c>
       <c r="AC15" t="n">
-        <v>665.1658469393074</v>
+        <v>779.3226183366997</v>
       </c>
       <c r="AD15" t="n">
-        <v>537437.9126187088</v>
+        <v>629673.8222244284</v>
       </c>
       <c r="AE15" t="n">
-        <v>735346.2621322491</v>
+        <v>861547.502815939</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.143155203539858e-06</v>
+        <v>1.954668002098822e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>19</v>
+        <v>18.01215277777778</v>
       </c>
       <c r="AH15" t="n">
-        <v>665165.8469393074</v>
+        <v>779322.6183366998</v>
       </c>
     </row>
     <row r="16">
@@ -53712,28 +53712,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>536.1534296855815</v>
+        <v>628.389339291301</v>
       </c>
       <c r="AB16" t="n">
-        <v>733.5887759157566</v>
+        <v>859.7900165994467</v>
       </c>
       <c r="AC16" t="n">
-        <v>663.5760927406697</v>
+        <v>777.7328641380622</v>
       </c>
       <c r="AD16" t="n">
-        <v>536153.4296855815</v>
+        <v>628389.339291301</v>
       </c>
       <c r="AE16" t="n">
-        <v>733588.7759157566</v>
+        <v>859790.0165994468</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.142182527589476e-06</v>
+        <v>1.953004834621006e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>19</v>
+        <v>18.02951388888889</v>
       </c>
       <c r="AH16" t="n">
-        <v>663576.0927406696</v>
+        <v>777732.8641380621</v>
       </c>
     </row>
     <row r="17">
@@ -53818,28 +53818,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>522.0786025083102</v>
+        <v>624.4869885233223</v>
       </c>
       <c r="AB17" t="n">
-        <v>714.3309764342623</v>
+        <v>854.450648119133</v>
       </c>
       <c r="AC17" t="n">
-        <v>646.1562306131977</v>
+        <v>772.9030774916588</v>
       </c>
       <c r="AD17" t="n">
-        <v>522078.6025083101</v>
+        <v>624486.9885233224</v>
       </c>
       <c r="AE17" t="n">
-        <v>714330.9764342624</v>
+        <v>854450.648119133</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.146073231391006e-06</v>
+        <v>1.95965750453227e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>18</v>
+        <v>17.96875</v>
       </c>
       <c r="AH17" t="n">
-        <v>646156.2306131978</v>
+        <v>772903.0774916587</v>
       </c>
     </row>
     <row r="18">
@@ -53924,28 +53924,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>518.2916866085751</v>
+        <v>620.7000726235874</v>
       </c>
       <c r="AB18" t="n">
-        <v>709.1495510333064</v>
+        <v>849.2692227181769</v>
       </c>
       <c r="AC18" t="n">
-        <v>641.4693131803327</v>
+        <v>768.2161600587938</v>
       </c>
       <c r="AD18" t="n">
-        <v>518291.6866085751</v>
+        <v>620700.0726235874</v>
       </c>
       <c r="AE18" t="n">
-        <v>709149.5510333064</v>
+        <v>849269.2227181769</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.149181049671497e-06</v>
+        <v>1.964971527449196e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>18</v>
+        <v>17.91666666666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>641469.3131803328</v>
+        <v>768216.1600587937</v>
       </c>
     </row>
     <row r="19">
@@ -54030,28 +54030,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>515.9101683258092</v>
+        <v>618.3185543408215</v>
       </c>
       <c r="AB19" t="n">
-        <v>705.8910526536547</v>
+        <v>846.0107243385252</v>
       </c>
       <c r="AC19" t="n">
-        <v>638.5218013127039</v>
+        <v>765.2686481911647</v>
       </c>
       <c r="AD19" t="n">
-        <v>515910.1683258092</v>
+        <v>618318.5543408215</v>
       </c>
       <c r="AE19" t="n">
-        <v>705891.0526536547</v>
+        <v>846010.7243385252</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.149062430653157e-06</v>
+        <v>1.964768702147022e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>18</v>
+        <v>17.92534722222222</v>
       </c>
       <c r="AH19" t="n">
-        <v>638521.8013127039</v>
+        <v>765268.6481911647</v>
       </c>
     </row>
     <row r="20">
@@ -54136,28 +54136,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>512.6379225272681</v>
+        <v>615.0463085422804</v>
       </c>
       <c r="AB20" t="n">
-        <v>701.4138215907944</v>
+        <v>841.5334932756651</v>
       </c>
       <c r="AC20" t="n">
-        <v>634.4718708986497</v>
+        <v>761.2187177771108</v>
       </c>
       <c r="AD20" t="n">
-        <v>512637.9225272681</v>
+        <v>615046.3085422803</v>
       </c>
       <c r="AE20" t="n">
-        <v>701413.8215907945</v>
+        <v>841533.4932756651</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.151909287093301e-06</v>
+        <v>1.969636509399168e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>18</v>
+        <v>17.88194444444444</v>
       </c>
       <c r="AH20" t="n">
-        <v>634471.8708986498</v>
+        <v>761218.7177771108</v>
       </c>
     </row>
     <row r="21">
@@ -54242,28 +54242,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>510.1959781537544</v>
+        <v>612.6043641687668</v>
       </c>
       <c r="AB21" t="n">
-        <v>698.0726455679705</v>
+        <v>838.1923172528413</v>
       </c>
       <c r="AC21" t="n">
-        <v>631.4495720260742</v>
+        <v>758.1964189045352</v>
       </c>
       <c r="AD21" t="n">
-        <v>510195.9781537544</v>
+        <v>612604.3641687668</v>
       </c>
       <c r="AE21" t="n">
-        <v>698072.6455679706</v>
+        <v>838192.3172528413</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.151695772860291e-06</v>
+        <v>1.969271423855257e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>18</v>
+        <v>17.88194444444444</v>
       </c>
       <c r="AH21" t="n">
-        <v>631449.5720260742</v>
+        <v>758196.4189045352</v>
       </c>
     </row>
     <row r="22">
@@ -54348,28 +54348,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>506.8962319366466</v>
+        <v>609.3046179516589</v>
       </c>
       <c r="AB22" t="n">
-        <v>693.5577872191947</v>
+        <v>833.6774589040655</v>
       </c>
       <c r="AC22" t="n">
-        <v>627.3656054214621</v>
+        <v>754.112452299923</v>
       </c>
       <c r="AD22" t="n">
-        <v>506896.2319366466</v>
+        <v>609304.6179516589</v>
       </c>
       <c r="AE22" t="n">
-        <v>693557.7872191947</v>
+        <v>833677.4589040654</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.155254343410471e-06</v>
+        <v>1.975356182920438e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>18</v>
+        <v>17.82986111111111</v>
       </c>
       <c r="AH22" t="n">
-        <v>627365.6054214621</v>
+        <v>754112.4522999231</v>
       </c>
     </row>
     <row r="23">
@@ -54454,28 +54454,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>505.1505089262968</v>
+        <v>607.5588949413093</v>
       </c>
       <c r="AB23" t="n">
-        <v>691.1692119805705</v>
+        <v>831.2888836654411</v>
       </c>
       <c r="AC23" t="n">
-        <v>625.2049924512257</v>
+        <v>751.9518393296867</v>
       </c>
       <c r="AD23" t="n">
-        <v>505150.5089262968</v>
+        <v>607558.8949413092</v>
       </c>
       <c r="AE23" t="n">
-        <v>691169.2119805705</v>
+        <v>831288.8836654411</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.154969657766456e-06</v>
+        <v>1.974869402195224e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>18</v>
+        <v>17.82986111111111</v>
       </c>
       <c r="AH23" t="n">
-        <v>625204.9924512258</v>
+        <v>751951.8393296867</v>
       </c>
     </row>
     <row r="24">
@@ -54560,28 +54560,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>506.4029236949791</v>
+        <v>608.8113097099913</v>
       </c>
       <c r="AB24" t="n">
-        <v>692.8828211197215</v>
+        <v>833.0024928045923</v>
       </c>
       <c r="AC24" t="n">
-        <v>626.7550571392018</v>
+        <v>753.5019040176627</v>
       </c>
       <c r="AD24" t="n">
-        <v>506402.9236949791</v>
+        <v>608811.3097099913</v>
       </c>
       <c r="AE24" t="n">
-        <v>692882.8211197215</v>
+        <v>833002.4928045922</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.155017105373792e-06</v>
+        <v>1.974950532316093e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>18</v>
+        <v>17.82986111111111</v>
       </c>
       <c r="AH24" t="n">
-        <v>626755.0571392018</v>
+        <v>753501.9040176627</v>
       </c>
     </row>
   </sheetData>
@@ -54857,28 +54857,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>264.7817263277754</v>
+        <v>337.9378311824801</v>
       </c>
       <c r="AB2" t="n">
-        <v>362.286039307001</v>
+        <v>462.3814493887743</v>
       </c>
       <c r="AC2" t="n">
-        <v>327.7099681871898</v>
+        <v>418.252412815549</v>
       </c>
       <c r="AD2" t="n">
-        <v>264781.7263277754</v>
+        <v>337937.8311824801</v>
       </c>
       <c r="AE2" t="n">
-        <v>362286.039307001</v>
+        <v>462381.4493887743</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.435507819325736e-06</v>
+        <v>3.076954438023925e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.4375</v>
       </c>
       <c r="AH2" t="n">
-        <v>327709.9681871898</v>
+        <v>418252.4128155489</v>
       </c>
     </row>
   </sheetData>
@@ -55154,28 +55154,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>564.7860717997625</v>
+        <v>677.154317791572</v>
       </c>
       <c r="AB2" t="n">
-        <v>772.7652200393979</v>
+        <v>926.5124115425335</v>
       </c>
       <c r="AC2" t="n">
-        <v>699.0135920216353</v>
+        <v>838.0873673532501</v>
       </c>
       <c r="AD2" t="n">
-        <v>564786.0717997624</v>
+        <v>677154.317791572</v>
       </c>
       <c r="AE2" t="n">
-        <v>772765.2200393979</v>
+        <v>926512.4115425335</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.03829896849179e-06</v>
+        <v>1.912995800714224e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.84027777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>699013.5920216353</v>
+        <v>838087.3673532502</v>
       </c>
     </row>
     <row r="3">
@@ -55260,28 +55260,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>476.5574628395406</v>
+        <v>570.1693103897425</v>
       </c>
       <c r="AB3" t="n">
-        <v>652.0469448885052</v>
+        <v>780.130804569934</v>
       </c>
       <c r="AC3" t="n">
-        <v>589.8164996219804</v>
+        <v>705.6762155022395</v>
       </c>
       <c r="AD3" t="n">
-        <v>476557.4628395406</v>
+        <v>570169.3103897425</v>
       </c>
       <c r="AE3" t="n">
-        <v>652046.9448885052</v>
+        <v>780130.8045699339</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.177456478901897e-06</v>
+        <v>2.169384125397884e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.26215277777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>589816.4996219804</v>
+        <v>705676.2155022395</v>
       </c>
     </row>
     <row r="4">
@@ -55366,28 +55366,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>444.4076966677694</v>
+        <v>537.9342033633994</v>
       </c>
       <c r="AB4" t="n">
-        <v>608.058216464706</v>
+        <v>736.0253090239371</v>
       </c>
       <c r="AC4" t="n">
-        <v>550.0259937003806</v>
+        <v>665.7800865487011</v>
       </c>
       <c r="AD4" t="n">
-        <v>444407.6966677693</v>
+        <v>537934.2033633995</v>
       </c>
       <c r="AE4" t="n">
-        <v>608058.216464706</v>
+        <v>736025.3090239371</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.226995089442184e-06</v>
+        <v>2.260655673201154e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.48090277777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>550025.9937003806</v>
+        <v>665780.086548701</v>
       </c>
     </row>
     <row r="5">
@@ -55472,28 +55472,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>430.7199785064689</v>
+        <v>515.0389229361629</v>
       </c>
       <c r="AB5" t="n">
-        <v>589.3300766169079</v>
+        <v>704.6989762749066</v>
       </c>
       <c r="AC5" t="n">
-        <v>533.0852412345467</v>
+        <v>637.4434950304538</v>
       </c>
       <c r="AD5" t="n">
-        <v>430719.9785064689</v>
+        <v>515038.9229361629</v>
       </c>
       <c r="AE5" t="n">
-        <v>589330.076616908</v>
+        <v>704698.9762749067</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.25442944654519e-06</v>
+        <v>2.311201625307396e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.08159722222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>533085.2412345468</v>
+        <v>637443.4950304539</v>
       </c>
     </row>
     <row r="6">
@@ -55578,28 +55578,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>412.2053486364514</v>
+        <v>505.8171066781022</v>
       </c>
       <c r="AB6" t="n">
-        <v>563.9975432209275</v>
+        <v>692.0812804328078</v>
       </c>
       <c r="AC6" t="n">
-        <v>510.1704092714449</v>
+        <v>626.0300143704777</v>
       </c>
       <c r="AD6" t="n">
-        <v>412205.3486364514</v>
+        <v>505817.1066781022</v>
       </c>
       <c r="AE6" t="n">
-        <v>563997.5432209275</v>
+        <v>692081.2804328079</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.268407904688151e-06</v>
+        <v>2.336955991380576e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.88194444444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>510170.4092714449</v>
+        <v>626030.0143704778</v>
       </c>
     </row>
     <row r="7">
@@ -55684,28 +55684,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>403.6907148475626</v>
+        <v>488.0949106232771</v>
       </c>
       <c r="AB7" t="n">
-        <v>552.3474456318381</v>
+        <v>667.8329899424864</v>
       </c>
       <c r="AC7" t="n">
-        <v>499.6321806452436</v>
+        <v>604.095946691863</v>
       </c>
       <c r="AD7" t="n">
-        <v>403690.7148475625</v>
+        <v>488094.9106232771</v>
       </c>
       <c r="AE7" t="n">
-        <v>552347.4456318382</v>
+        <v>667832.9899424864</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.278623936714127e-06</v>
+        <v>2.3557783411649e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.734375</v>
       </c>
       <c r="AH7" t="n">
-        <v>499632.1806452436</v>
+        <v>604095.946691863</v>
       </c>
     </row>
     <row r="8">
@@ -55790,28 +55790,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>396.4271709815451</v>
+        <v>480.8313667572597</v>
       </c>
       <c r="AB8" t="n">
-        <v>542.4091444694138</v>
+        <v>657.8946887800619</v>
       </c>
       <c r="AC8" t="n">
-        <v>490.6423769972676</v>
+        <v>595.106143043887</v>
       </c>
       <c r="AD8" t="n">
-        <v>396427.1709815451</v>
+        <v>480831.3667572597</v>
       </c>
       <c r="AE8" t="n">
-        <v>542409.1444694138</v>
+        <v>657894.6887800619</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.285338822214578e-06</v>
+        <v>2.368150064680429e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.64756944444444</v>
       </c>
       <c r="AH8" t="n">
-        <v>490642.3769972676</v>
+        <v>595106.143043887</v>
       </c>
     </row>
     <row r="9">
@@ -55896,28 +55896,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>393.0981877698948</v>
+        <v>477.5023835456094</v>
       </c>
       <c r="AB9" t="n">
-        <v>537.8542827748597</v>
+        <v>653.3398270855077</v>
       </c>
       <c r="AC9" t="n">
-        <v>486.5222249100533</v>
+        <v>590.9859909566727</v>
       </c>
       <c r="AD9" t="n">
-        <v>393098.1877698948</v>
+        <v>477502.3835456094</v>
       </c>
       <c r="AE9" t="n">
-        <v>537854.2827748597</v>
+        <v>653339.8270855078</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.290982461390053e-06</v>
+        <v>2.378548089113712e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.56944444444444</v>
       </c>
       <c r="AH9" t="n">
-        <v>486522.2249100533</v>
+        <v>590985.9909566727</v>
       </c>
     </row>
     <row r="10">
@@ -56002,28 +56002,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>394.6511449808667</v>
+        <v>479.0553407565812</v>
       </c>
       <c r="AB10" t="n">
-        <v>539.9791073425481</v>
+        <v>655.4646516531961</v>
       </c>
       <c r="AC10" t="n">
-        <v>488.4442592032116</v>
+        <v>592.9080252498309</v>
       </c>
       <c r="AD10" t="n">
-        <v>394651.1449808667</v>
+        <v>479055.3407565812</v>
       </c>
       <c r="AE10" t="n">
-        <v>539979.1073425481</v>
+        <v>655464.6516531962</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.290982461390053e-06</v>
+        <v>2.378548089113712e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.56944444444444</v>
       </c>
       <c r="AH10" t="n">
-        <v>488444.2592032116</v>
+        <v>592908.0252498309</v>
       </c>
     </row>
   </sheetData>
@@ -56299,28 +56299,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>693.367143161262</v>
+        <v>809.9323140520905</v>
       </c>
       <c r="AB2" t="n">
-        <v>948.6955144727184</v>
+        <v>1108.185123777951</v>
       </c>
       <c r="AC2" t="n">
-        <v>858.1533460739586</v>
+        <v>1002.421490912172</v>
       </c>
       <c r="AD2" t="n">
-        <v>693367.143161262</v>
+        <v>809932.3140520905</v>
       </c>
       <c r="AE2" t="n">
-        <v>948695.5144727184</v>
+        <v>1108185.123777951</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.244440365295895e-07</v>
+        <v>1.651451806923838e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.61979166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>858153.3460739586</v>
+        <v>1002421.490912172</v>
       </c>
     </row>
     <row r="3">
@@ -56405,28 +56405,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>559.3009273499789</v>
+        <v>656.3533184129822</v>
       </c>
       <c r="AB3" t="n">
-        <v>765.2602034157097</v>
+        <v>898.0515665174207</v>
       </c>
       <c r="AC3" t="n">
-        <v>692.2248436511549</v>
+        <v>812.3427854322871</v>
       </c>
       <c r="AD3" t="n">
-        <v>559300.9273499789</v>
+        <v>656353.3184129822</v>
       </c>
       <c r="AE3" t="n">
-        <v>765260.2034157098</v>
+        <v>898051.5665174207</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.086068922504789e-06</v>
+        <v>1.940182870612256e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.10416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>692224.8436511549</v>
+        <v>812342.7854322871</v>
       </c>
     </row>
     <row r="4">
@@ -56511,28 +56511,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>517.490748339451</v>
+        <v>604.9147160161235</v>
       </c>
       <c r="AB4" t="n">
-        <v>708.0536719585883</v>
+        <v>827.6710014070608</v>
       </c>
       <c r="AC4" t="n">
-        <v>640.47802326643</v>
+        <v>748.6792426763166</v>
       </c>
       <c r="AD4" t="n">
-        <v>517490.748339451</v>
+        <v>604914.7160161235</v>
       </c>
       <c r="AE4" t="n">
-        <v>708053.6719585883</v>
+        <v>827671.0014070608</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.147021000126254e-06</v>
+        <v>2.04906930910518e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.03645833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>640478.02326643</v>
+        <v>748679.2426763165</v>
       </c>
     </row>
     <row r="5">
@@ -56617,28 +56617,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>492.7837840222531</v>
+        <v>589.8360855767053</v>
       </c>
       <c r="AB5" t="n">
-        <v>674.2485133854603</v>
+        <v>807.039754017623</v>
       </c>
       <c r="AC5" t="n">
-        <v>609.8991815816833</v>
+        <v>730.0170125815889</v>
       </c>
       <c r="AD5" t="n">
-        <v>492783.7840222531</v>
+        <v>589836.0855767053</v>
       </c>
       <c r="AE5" t="n">
-        <v>674248.5133854604</v>
+        <v>807039.7540176229</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.175270766188533e-06</v>
+        <v>2.099535454556089e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.57638888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>609899.1815816832</v>
+        <v>730017.0125815889</v>
       </c>
     </row>
     <row r="6">
@@ -56723,28 +56723,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>482.148444354678</v>
+        <v>569.4870711767788</v>
       </c>
       <c r="AB6" t="n">
-        <v>659.6967724542125</v>
+        <v>779.1973347804874</v>
       </c>
       <c r="AC6" t="n">
-        <v>596.736238381417</v>
+        <v>704.8318347593648</v>
       </c>
       <c r="AD6" t="n">
-        <v>482148.444354678</v>
+        <v>569487.0711767789</v>
       </c>
       <c r="AE6" t="n">
-        <v>659696.7724542124</v>
+        <v>779197.3347804873</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.193080948176151e-06</v>
+        <v>2.131352044920509e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.29861111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>596736.238381417</v>
+        <v>704831.8347593648</v>
       </c>
     </row>
     <row r="7">
@@ -56829,28 +56829,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>474.0458707879158</v>
+        <v>561.3844976100166</v>
       </c>
       <c r="AB7" t="n">
-        <v>648.6104738398507</v>
+        <v>768.1110361661257</v>
       </c>
       <c r="AC7" t="n">
-        <v>586.7080005470921</v>
+        <v>694.8035969250398</v>
       </c>
       <c r="AD7" t="n">
-        <v>474045.8707879158</v>
+        <v>561384.4976100166</v>
       </c>
       <c r="AE7" t="n">
-        <v>648610.4738398506</v>
+        <v>768111.0361661257</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.206010939054167e-06</v>
+        <v>2.154450530015583e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.10763888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>586708.0005470921</v>
+        <v>694803.5969250398</v>
       </c>
     </row>
     <row r="8">
@@ -56935,28 +56935,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>456.6180882360755</v>
+        <v>553.5850489359561</v>
       </c>
       <c r="AB8" t="n">
-        <v>624.76501289292</v>
+        <v>757.439486402885</v>
       </c>
       <c r="AC8" t="n">
-        <v>565.1383169256218</v>
+        <v>685.1505248935886</v>
       </c>
       <c r="AD8" t="n">
-        <v>456618.0882360755</v>
+        <v>553585.0489359561</v>
       </c>
       <c r="AE8" t="n">
-        <v>624765.0128929201</v>
+        <v>757439.4864028849</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.217280658729947e-06</v>
+        <v>2.174583061771601e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.94270833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>565138.3169256218</v>
+        <v>685150.5248935886</v>
       </c>
     </row>
     <row r="9">
@@ -57041,28 +57041,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>451.1791045703947</v>
+        <v>548.1460652702752</v>
       </c>
       <c r="AB9" t="n">
-        <v>617.3231554905113</v>
+        <v>749.9976290004761</v>
       </c>
       <c r="AC9" t="n">
-        <v>558.4066999489864</v>
+        <v>678.4189079169533</v>
       </c>
       <c r="AD9" t="n">
-        <v>451179.1045703947</v>
+        <v>548146.0652702752</v>
       </c>
       <c r="AE9" t="n">
-        <v>617323.1554905113</v>
+        <v>749997.6290004761</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.222160849839548e-06</v>
+        <v>2.183301167040947e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.86458333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>558406.6999489864</v>
+        <v>678418.9079169533</v>
       </c>
     </row>
     <row r="10">
@@ -57147,28 +57147,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>445.4052213170406</v>
+        <v>532.8290994851619</v>
       </c>
       <c r="AB10" t="n">
-        <v>609.4230736975206</v>
+        <v>729.0402806764448</v>
       </c>
       <c r="AC10" t="n">
-        <v>551.2605908744843</v>
+        <v>659.4616995031444</v>
       </c>
       <c r="AD10" t="n">
-        <v>445405.2213170406</v>
+        <v>532829.0994851619</v>
       </c>
       <c r="AE10" t="n">
-        <v>609423.0736975207</v>
+        <v>729040.2806764448</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.227745398428886e-06</v>
+        <v>2.193277555545045e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.78645833333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>551260.5908744843</v>
+        <v>659461.6995031444</v>
       </c>
     </row>
     <row r="11">
@@ -57253,28 +57253,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>439.8939074452769</v>
+        <v>527.3177856133983</v>
       </c>
       <c r="AB11" t="n">
-        <v>601.8822509161657</v>
+        <v>721.4994578950899</v>
       </c>
       <c r="AC11" t="n">
-        <v>544.4394536357706</v>
+        <v>652.6405622644309</v>
       </c>
       <c r="AD11" t="n">
-        <v>439893.9074452769</v>
+        <v>527317.7856133983</v>
       </c>
       <c r="AE11" t="n">
-        <v>601882.2509161658</v>
+        <v>721499.4578950899</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.233078390775461e-06</v>
+        <v>2.202804557179589e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.70833333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>544439.4536357706</v>
+        <v>652640.5622644308</v>
       </c>
     </row>
     <row r="12">
@@ -57359,28 +57359,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>434.6258727264351</v>
+        <v>522.0497508945564</v>
       </c>
       <c r="AB12" t="n">
-        <v>594.674293404557</v>
+        <v>714.2915003834812</v>
       </c>
       <c r="AC12" t="n">
-        <v>537.9194134726381</v>
+        <v>646.1205221012982</v>
       </c>
       <c r="AD12" t="n">
-        <v>434625.8727264351</v>
+        <v>522049.7508945564</v>
       </c>
       <c r="AE12" t="n">
-        <v>594674.293404557</v>
+        <v>714291.5003834812</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.235920976318682e-06</v>
+        <v>2.207882628805548e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>17.66493055555556</v>
       </c>
       <c r="AH12" t="n">
-        <v>537919.4134726381</v>
+        <v>646120.5221012982</v>
       </c>
     </row>
     <row r="13">
@@ -57465,28 +57465,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>432.3969910475225</v>
+        <v>519.8208692156438</v>
       </c>
       <c r="AB13" t="n">
-        <v>591.6246391601491</v>
+        <v>711.2418461390732</v>
       </c>
       <c r="AC13" t="n">
-        <v>535.1608139490997</v>
+        <v>643.36192257776</v>
       </c>
       <c r="AD13" t="n">
-        <v>432396.9910475225</v>
+        <v>519820.8692156438</v>
       </c>
       <c r="AE13" t="n">
-        <v>591624.639160149</v>
+        <v>711241.8461390733</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.238084360006444e-06</v>
+        <v>2.211747355883712e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>17.63888888888889</v>
       </c>
       <c r="AH13" t="n">
-        <v>535160.8139490997</v>
+        <v>643361.9225777599</v>
       </c>
     </row>
     <row r="14">
@@ -57571,28 +57571,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>433.9215648983696</v>
+        <v>521.345443066491</v>
       </c>
       <c r="AB14" t="n">
-        <v>593.7106283623294</v>
+        <v>713.3278353412536</v>
       </c>
       <c r="AC14" t="n">
-        <v>537.0477192695283</v>
+        <v>645.2488278981883</v>
       </c>
       <c r="AD14" t="n">
-        <v>433921.5648983696</v>
+        <v>521345.443066491</v>
       </c>
       <c r="AE14" t="n">
-        <v>593710.6283623294</v>
+        <v>713327.8353412536</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.237983737509339e-06</v>
+        <v>2.211567601135891e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>18</v>
+        <v>17.63888888888889</v>
       </c>
       <c r="AH14" t="n">
-        <v>537047.7192695283</v>
+        <v>645248.8278981884</v>
       </c>
     </row>
   </sheetData>
